--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-26.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-26.xlsx
@@ -2682,88 +2682,88 @@
         <v>213</v>
       </c>
       <c r="F2">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G2">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H2">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J2">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K2">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="N2">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="O2">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P2">
         <v>1.36</v>
       </c>
       <c r="Q2">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R2">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="S2">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T2">
+        <v>34</v>
+      </c>
+      <c r="U2">
+        <v>44</v>
+      </c>
+      <c r="V2">
+        <v>22</v>
+      </c>
+      <c r="W2">
         <v>32</v>
       </c>
-      <c r="U2">
-        <v>42</v>
-      </c>
-      <c r="V2">
-        <v>24</v>
-      </c>
-      <c r="W2">
-        <v>30</v>
-      </c>
       <c r="X2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Z2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2">
         <v>55</v>
       </c>
       <c r="AB2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD2">
         <v>11</v>
       </c>
       <c r="AE2">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF2">
         <v>13.5</v>
       </c>
       <c r="AG2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH2">
         <v>23</v>
@@ -2775,7 +2775,7 @@
         <v>21</v>
       </c>
       <c r="AK2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL2">
         <v>11.5</v>
@@ -2784,10 +2784,10 @@
         <v>12.5</v>
       </c>
       <c r="AN2">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO2">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP2">
         <v>23</v>
@@ -2796,46 +2796,46 @@
         <v>26</v>
       </c>
       <c r="AR2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS2">
         <v>34</v>
       </c>
       <c r="AT2">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AU2">
+        <v>18.5</v>
+      </c>
+      <c r="AV2">
         <v>19</v>
-      </c>
-      <c r="AV2">
-        <v>19.5</v>
       </c>
       <c r="AW2">
         <v>22</v>
       </c>
       <c r="AX2">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AY2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AZ2">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="BA2">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB2">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC2">
         <v>11.5</v>
       </c>
       <c r="BD2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BE2">
-        <v>980</v>
+        <v>330</v>
       </c>
       <c r="BF2" t="s">
         <v>294</v>
@@ -2879,7 +2879,7 @@
         <v>214</v>
       </c>
       <c r="F3">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -2891,7 +2891,7 @@
         <v>3.15</v>
       </c>
       <c r="J3">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K3">
         <v>3.4</v>
@@ -2930,7 +2930,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="W3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X3">
         <v>15.5</v>
@@ -2939,7 +2939,7 @@
         <v>23</v>
       </c>
       <c r="Z3">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AA3">
         <v>980</v>
@@ -2963,10 +2963,10 @@
         <v>16.5</v>
       </c>
       <c r="AH3">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AI3">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ3">
         <v>13</v>
@@ -2981,55 +2981,55 @@
         <v>16</v>
       </c>
       <c r="AN3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO3">
         <v>25</v>
       </c>
       <c r="AP3">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AQ3">
         <v>980</v>
       </c>
       <c r="AR3">
+        <v>5</v>
+      </c>
+      <c r="AS3">
+        <v>980</v>
+      </c>
+      <c r="AT3">
         <v>4.9</v>
-      </c>
-      <c r="AS3">
-        <v>980</v>
-      </c>
-      <c r="AT3">
-        <v>4.8</v>
       </c>
       <c r="AU3">
         <v>44</v>
       </c>
       <c r="AV3">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AW3">
         <v>980</v>
       </c>
       <c r="AX3">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AY3">
         <v>980</v>
       </c>
       <c r="AZ3">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BA3">
         <v>44</v>
       </c>
       <c r="BB3">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BC3">
         <v>48</v>
       </c>
       <c r="BD3">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BE3">
         <v>1000</v>
@@ -3076,100 +3076,100 @@
         <v>215</v>
       </c>
       <c r="F4">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G4">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="H4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J4">
         <v>3.1</v>
       </c>
       <c r="K4">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L4">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="M4">
+        <v>1.79</v>
+      </c>
+      <c r="N4">
+        <v>2.26</v>
+      </c>
+      <c r="O4">
+        <v>2.64</v>
+      </c>
+      <c r="P4">
+        <v>1.96</v>
+      </c>
+      <c r="Q4">
+        <v>2.18</v>
+      </c>
+      <c r="R4">
         <v>1.85</v>
       </c>
-      <c r="N4">
-        <v>2.18</v>
-      </c>
-      <c r="O4">
-        <v>2.58</v>
-      </c>
-      <c r="P4">
-        <v>1.92</v>
-      </c>
-      <c r="Q4">
-        <v>2.22</v>
-      </c>
-      <c r="R4">
-        <v>1.83</v>
-      </c>
       <c r="S4">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T4">
         <v>8.4</v>
       </c>
       <c r="U4">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W4">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="X4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z4">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AA4">
         <v>980</v>
       </c>
       <c r="AB4">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AC4">
         <v>8.6</v>
       </c>
       <c r="AD4">
+        <v>6.4</v>
+      </c>
+      <c r="AE4">
+        <v>7.6</v>
+      </c>
+      <c r="AF4">
+        <v>14</v>
+      </c>
+      <c r="AG4">
+        <v>17.5</v>
+      </c>
+      <c r="AH4">
         <v>6.6</v>
       </c>
-      <c r="AE4">
-        <v>7.8</v>
-      </c>
-      <c r="AF4">
-        <v>14.5</v>
-      </c>
-      <c r="AG4">
-        <v>21</v>
-      </c>
-      <c r="AH4">
-        <v>5.7</v>
-      </c>
       <c r="AI4">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ4">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK4">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL4">
         <v>10</v>
@@ -3178,55 +3178,55 @@
         <v>12.5</v>
       </c>
       <c r="AN4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO4">
         <v>26</v>
       </c>
       <c r="AP4">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AQ4">
         <v>980</v>
       </c>
       <c r="AR4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS4">
+        <v>38</v>
+      </c>
+      <c r="AT4">
+        <v>22</v>
+      </c>
+      <c r="AU4">
         <v>36</v>
       </c>
-      <c r="AT4">
-        <v>21</v>
-      </c>
-      <c r="AU4">
-        <v>34</v>
-      </c>
       <c r="AV4">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AW4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AX4">
+        <v>7.2</v>
+      </c>
+      <c r="AY4">
+        <v>980</v>
+      </c>
+      <c r="AZ4">
         <v>6</v>
       </c>
-      <c r="AY4">
-        <v>980</v>
-      </c>
-      <c r="AZ4">
-        <v>5</v>
-      </c>
       <c r="BA4">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BB4">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="BC4">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="BD4">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -3282,7 +3282,7 @@
         <v>4.3</v>
       </c>
       <c r="I5">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J5">
         <v>3.75</v>
@@ -3297,13 +3297,13 @@
         <v>2.04</v>
       </c>
       <c r="N5">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O5">
         <v>2.18</v>
       </c>
       <c r="P5">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q5">
         <v>2.08</v>
@@ -3312,13 +3312,13 @@
         <v>1.92</v>
       </c>
       <c r="S5">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T5">
         <v>11.5</v>
       </c>
       <c r="U5">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V5">
         <v>12.5</v>
@@ -3327,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="X5">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y5">
         <v>980</v>
@@ -3357,7 +3357,7 @@
         <v>21</v>
       </c>
       <c r="AH5">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AI5">
         <v>980</v>
@@ -3387,7 +3387,7 @@
         <v>980</v>
       </c>
       <c r="AR5">
-        <v>17</v>
+        <v>5.3</v>
       </c>
       <c r="AS5">
         <v>980</v>
@@ -3417,13 +3417,13 @@
         <v>14.5</v>
       </c>
       <c r="BB5">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BC5">
         <v>980</v>
       </c>
       <c r="BD5">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -3473,7 +3473,7 @@
         <v>2.3</v>
       </c>
       <c r="G6">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H6">
         <v>3.15</v>
@@ -3485,10 +3485,10 @@
         <v>3.65</v>
       </c>
       <c r="K6">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L6">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="M6">
         <v>2.24</v>
@@ -3497,7 +3497,7 @@
         <v>1.81</v>
       </c>
       <c r="O6">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="P6">
         <v>1.68</v>
@@ -3521,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="W6">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="X6">
         <v>18.5</v>
@@ -3578,7 +3578,7 @@
         <v>18.5</v>
       </c>
       <c r="AP6">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AQ6">
         <v>48</v>
@@ -3602,7 +3602,7 @@
         <v>38</v>
       </c>
       <c r="AX6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AY6">
         <v>95</v>
@@ -3620,7 +3620,7 @@
         <v>36</v>
       </c>
       <c r="BD6">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -3667,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="F7">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G7">
         <v>3.4</v>
@@ -3676,7 +3676,7 @@
         <v>2.32</v>
       </c>
       <c r="I7">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J7">
         <v>3.4</v>
@@ -3730,7 +3730,7 @@
         <v>4.2</v>
       </c>
       <c r="AA7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB7">
         <v>12</v>
@@ -3748,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="AG7">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH7">
         <v>19</v>
@@ -3775,49 +3775,49 @@
         <v>980</v>
       </c>
       <c r="AP7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AR7">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AS7">
         <v>980</v>
       </c>
       <c r="AT7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AU7">
         <v>42</v>
       </c>
       <c r="AV7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AW7">
         <v>980</v>
       </c>
       <c r="AX7">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AY7">
         <v>980</v>
       </c>
       <c r="AZ7">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BA7">
         <v>34</v>
       </c>
       <c r="BB7">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BC7">
         <v>980</v>
       </c>
       <c r="BD7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -3867,10 +3867,10 @@
         <v>2.68</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H8">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I8">
         <v>2.84</v>
@@ -3894,7 +3894,7 @@
         <v>2.08</v>
       </c>
       <c r="P8">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q8">
         <v>1.91</v>
@@ -3903,7 +3903,7 @@
         <v>2.08</v>
       </c>
       <c r="S8">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="T8">
         <v>12.5</v>
@@ -3912,10 +3912,10 @@
         <v>17.5</v>
       </c>
       <c r="V8">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W8">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X8">
         <v>13</v>
@@ -3924,7 +3924,7 @@
         <v>22</v>
       </c>
       <c r="Z8">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AA8">
         <v>980</v>
@@ -3936,10 +3936,10 @@
         <v>15</v>
       </c>
       <c r="AD8">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8">
         <v>10</v>
@@ -3972,13 +3972,13 @@
         <v>21</v>
       </c>
       <c r="AP8">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AQ8">
         <v>980</v>
       </c>
       <c r="AR8">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AS8">
         <v>55</v>
@@ -3990,31 +3990,31 @@
         <v>38</v>
       </c>
       <c r="AV8">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AW8">
         <v>55</v>
       </c>
       <c r="AX8">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AY8">
         <v>980</v>
       </c>
       <c r="AZ8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="BA8">
         <v>30</v>
       </c>
       <c r="BB8">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="BC8">
         <v>28</v>
       </c>
       <c r="BD8">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -4061,16 +4061,16 @@
         <v>220</v>
       </c>
       <c r="F9">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G9">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J9">
         <v>3.65</v>
@@ -4079,25 +4079,25 @@
         <v>3.9</v>
       </c>
       <c r="L9">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="M9">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="N9">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="P9">
         <v>1.66</v>
       </c>
       <c r="Q9">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R9">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="S9">
         <v>2.5</v>
@@ -4121,7 +4121,7 @@
         <v>980</v>
       </c>
       <c r="Z9">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA9">
         <v>980</v>
@@ -4145,13 +4145,13 @@
         <v>16</v>
       </c>
       <c r="AH9">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AI9">
         <v>980</v>
       </c>
       <c r="AJ9">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK9">
         <v>17.5</v>
@@ -4169,46 +4169,46 @@
         <v>17.5</v>
       </c>
       <c r="AP9">
+        <v>6.8</v>
+      </c>
+      <c r="AQ9">
+        <v>980</v>
+      </c>
+      <c r="AR9">
+        <v>6.4</v>
+      </c>
+      <c r="AS9">
+        <v>980</v>
+      </c>
+      <c r="AT9">
+        <v>17.5</v>
+      </c>
+      <c r="AU9">
+        <v>980</v>
+      </c>
+      <c r="AV9">
         <v>6.6</v>
       </c>
-      <c r="AQ9">
-        <v>980</v>
-      </c>
-      <c r="AR9">
-        <v>6.2</v>
-      </c>
-      <c r="AS9">
-        <v>980</v>
-      </c>
-      <c r="AT9">
-        <v>18.5</v>
-      </c>
-      <c r="AU9">
-        <v>980</v>
-      </c>
-      <c r="AV9">
-        <v>6.4</v>
-      </c>
       <c r="AW9">
         <v>980</v>
       </c>
       <c r="AX9">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AY9">
         <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BA9">
         <v>15</v>
       </c>
       <c r="BB9">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="BC9">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="BD9">
         <v>7.2</v>
@@ -4258,34 +4258,34 @@
         <v>221</v>
       </c>
       <c r="F10">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="G10">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="H10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I10">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="K10">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L10">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M10">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="N10">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="P10">
         <v>1.01</v>
@@ -4300,7 +4300,7 @@
         <v>1000</v>
       </c>
       <c r="T10">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="U10">
         <v>1000</v>
@@ -4408,7 +4408,7 @@
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>28</v>
+        <v>1.03</v>
       </c>
       <c r="BE10">
         <v>1000</v>
@@ -4455,34 +4455,34 @@
         <v>222</v>
       </c>
       <c r="F11">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="H11">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J11">
         <v>3.2</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L11">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="M11">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="N11">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="O11">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="P11">
         <v>1.01</v>
@@ -4664,52 +4664,52 @@
         <v>2.98</v>
       </c>
       <c r="J12">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K12">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="M12">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N12">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O12">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="P12">
         <v>1.68</v>
       </c>
       <c r="Q12">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R12">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="S12">
         <v>2.46</v>
       </c>
       <c r="T12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U12">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="V12">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W12">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="X12">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y12">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z12">
         <v>6</v>
@@ -4721,16 +4721,16 @@
         <v>10</v>
       </c>
       <c r="AC12">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD12">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AE12">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF12">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG12">
         <v>980</v>
@@ -4742,10 +4742,10 @@
         <v>980</v>
       </c>
       <c r="AJ12">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK12">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL12">
         <v>10</v>
@@ -4754,13 +4754,13 @@
         <v>980</v>
       </c>
       <c r="AN12">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO12">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AP12">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AQ12">
         <v>980</v>
@@ -4784,25 +4784,25 @@
         <v>980</v>
       </c>
       <c r="AX12">
-        <v>1.84</v>
+        <v>3.1</v>
       </c>
       <c r="AY12">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ12">
-        <v>1.47</v>
+        <v>2.82</v>
       </c>
       <c r="BA12">
         <v>980</v>
       </c>
       <c r="BB12">
-        <v>1.38</v>
+        <v>2.86</v>
       </c>
       <c r="BC12">
         <v>980</v>
       </c>
       <c r="BD12">
-        <v>1.47</v>
+        <v>3.2</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -4987,7 +4987,7 @@
         <v>150</v>
       </c>
       <c r="AZ13">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BA13">
         <v>6.2</v>
@@ -4999,7 +4999,7 @@
         <v>980</v>
       </c>
       <c r="BD13">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -5049,22 +5049,22 @@
         <v>1.23</v>
       </c>
       <c r="G14">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14">
         <v>15</v>
-      </c>
-      <c r="I14">
-        <v>18.5</v>
       </c>
       <c r="J14">
         <v>7.2</v>
       </c>
       <c r="K14">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L14">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="M14">
         <v>4.3</v>
@@ -5073,94 +5073,94 @@
         <v>1.3</v>
       </c>
       <c r="O14">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P14">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="Q14">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R14">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="T14">
+        <v>7.4</v>
+      </c>
+      <c r="U14">
+        <v>980</v>
+      </c>
+      <c r="V14">
+        <v>7.6</v>
+      </c>
+      <c r="W14">
+        <v>980</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14">
+        <v>980</v>
+      </c>
+      <c r="Z14">
+        <v>8.4</v>
+      </c>
+      <c r="AA14">
+        <v>1000</v>
+      </c>
+      <c r="AB14">
+        <v>5.8</v>
+      </c>
+      <c r="AC14">
+        <v>1000</v>
+      </c>
+      <c r="AD14">
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>980</v>
+      </c>
+      <c r="AF14">
+        <v>7.4</v>
+      </c>
+      <c r="AG14">
+        <v>980</v>
+      </c>
+      <c r="AH14">
         <v>8.199999999999999</v>
       </c>
-      <c r="U14">
-        <v>980</v>
-      </c>
-      <c r="V14">
-        <v>8.4</v>
-      </c>
-      <c r="W14">
-        <v>980</v>
-      </c>
-      <c r="X14">
-        <v>9</v>
-      </c>
-      <c r="Y14">
-        <v>980</v>
-      </c>
-      <c r="Z14">
-        <v>9.4</v>
-      </c>
-      <c r="AA14">
-        <v>1000</v>
-      </c>
-      <c r="AB14">
-        <v>6.2</v>
-      </c>
-      <c r="AC14">
-        <v>1000</v>
-      </c>
-      <c r="AD14">
-        <v>6.6</v>
-      </c>
-      <c r="AE14">
-        <v>980</v>
-      </c>
-      <c r="AF14">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG14">
-        <v>980</v>
-      </c>
-      <c r="AH14">
-        <v>9</v>
-      </c>
       <c r="AI14">
         <v>980</v>
       </c>
       <c r="AJ14">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AK14">
         <v>12.5</v>
       </c>
       <c r="AL14">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AM14">
         <v>13.5</v>
       </c>
       <c r="AN14">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AO14">
         <v>980</v>
       </c>
       <c r="AP14">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AQ14">
         <v>980</v>
       </c>
       <c r="AR14">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AS14">
         <v>12.5</v>
@@ -5172,31 +5172,31 @@
         <v>15</v>
       </c>
       <c r="AV14">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AW14">
         <v>980</v>
       </c>
       <c r="AX14">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AY14">
         <v>980</v>
       </c>
       <c r="AZ14">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="BA14">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="BB14">
-        <v>2.18</v>
+        <v>8</v>
       </c>
       <c r="BC14">
         <v>980</v>
       </c>
       <c r="BD14">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -5243,25 +5243,25 @@
         <v>226</v>
       </c>
       <c r="F15">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="G15">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="H15">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="I15">
         <v>3.9</v>
       </c>
       <c r="J15">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="K15">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="L15">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="M15">
         <v>2.88</v>
@@ -5270,7 +5270,7 @@
         <v>1.53</v>
       </c>
       <c r="O15">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>1000</v>
       </c>
       <c r="J16">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="K16">
         <v>950</v>
@@ -5461,10 +5461,10 @@
         <v>1.08</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N16">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="O16">
         <v>21</v>
@@ -5482,25 +5482,25 @@
         <v>1000</v>
       </c>
       <c r="T16">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U16">
         <v>1000</v>
       </c>
       <c r="V16">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="W16">
         <v>1000</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="Y16">
         <v>1000</v>
       </c>
       <c r="Z16">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="AA16">
         <v>1000</v>
@@ -5524,7 +5524,7 @@
         <v>1000</v>
       </c>
       <c r="AH16">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="AI16">
         <v>1000</v>
@@ -5548,13 +5548,13 @@
         <v>1000</v>
       </c>
       <c r="AP16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AQ16">
         <v>1000</v>
       </c>
       <c r="AR16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AS16">
         <v>1000</v>
@@ -5566,13 +5566,13 @@
         <v>1000</v>
       </c>
       <c r="AV16">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AW16">
         <v>1000</v>
       </c>
       <c r="AX16">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AY16">
         <v>1000</v>
@@ -5640,16 +5640,16 @@
         <v>2.1</v>
       </c>
       <c r="G17">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K17">
         <v>3.45</v>
@@ -5658,10 +5658,10 @@
         <v>1.62</v>
       </c>
       <c r="M17">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="N17">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O17">
         <v>2.62</v>
@@ -5673,13 +5673,13 @@
         <v>2.2</v>
       </c>
       <c r="R17">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S17">
         <v>1.99</v>
       </c>
       <c r="T17">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="U17">
         <v>980</v>
@@ -5691,19 +5691,19 @@
         <v>980</v>
       </c>
       <c r="X17">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Y17">
         <v>980</v>
       </c>
       <c r="Z17">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA17">
         <v>980</v>
       </c>
       <c r="AB17">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AC17">
         <v>980</v>
@@ -5715,13 +5715,13 @@
         <v>980</v>
       </c>
       <c r="AF17">
-        <v>5.9</v>
+        <v>14</v>
       </c>
       <c r="AG17">
         <v>980</v>
       </c>
       <c r="AH17">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI17">
         <v>980</v>
@@ -5736,43 +5736,43 @@
         <v>9.4</v>
       </c>
       <c r="AM17">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AN17">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO17">
         <v>980</v>
       </c>
       <c r="AP17">
+        <v>7.4</v>
+      </c>
+      <c r="AQ17">
+        <v>980</v>
+      </c>
+      <c r="AR17">
+        <v>6.2</v>
+      </c>
+      <c r="AS17">
+        <v>980</v>
+      </c>
+      <c r="AT17">
+        <v>6.2</v>
+      </c>
+      <c r="AU17">
+        <v>980</v>
+      </c>
+      <c r="AV17">
         <v>7</v>
       </c>
-      <c r="AQ17">
-        <v>980</v>
-      </c>
-      <c r="AR17">
-        <v>6</v>
-      </c>
-      <c r="AS17">
-        <v>980</v>
-      </c>
-      <c r="AT17">
-        <v>6</v>
-      </c>
-      <c r="AU17">
-        <v>980</v>
-      </c>
-      <c r="AV17">
-        <v>6.8</v>
-      </c>
       <c r="AW17">
         <v>980</v>
       </c>
       <c r="AX17">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AY17">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ17">
         <v>5.8</v>
@@ -5781,13 +5781,13 @@
         <v>980</v>
       </c>
       <c r="BB17">
-        <v>6.8</v>
+        <v>3.8</v>
       </c>
       <c r="BC17">
         <v>980</v>
       </c>
       <c r="BD17">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -5840,25 +5840,25 @@
         <v>2.08</v>
       </c>
       <c r="H18">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="J18">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K18">
-        <v>7.4</v>
+        <v>5.9</v>
       </c>
       <c r="L18">
         <v>2.16</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N18">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O18">
         <v>1.85</v>
@@ -5882,109 +5882,109 @@
         <v>42</v>
       </c>
       <c r="V18">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="W18">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X18">
-        <v>8.800000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="Y18">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z18">
-        <v>12.5</v>
+        <v>2.56</v>
       </c>
       <c r="AA18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB18">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC18">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AD18">
         <v>7.8</v>
       </c>
       <c r="AE18">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF18">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AG18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH18">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AI18">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ18">
         <v>10.5</v>
       </c>
       <c r="AK18">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AL18">
         <v>9</v>
       </c>
       <c r="AM18">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AN18">
+        <v>11</v>
+      </c>
+      <c r="AO18">
+        <v>21</v>
+      </c>
+      <c r="AP18">
+        <v>22</v>
+      </c>
+      <c r="AQ18">
+        <v>65</v>
+      </c>
+      <c r="AR18">
+        <v>16</v>
+      </c>
+      <c r="AS18">
+        <v>36</v>
+      </c>
+      <c r="AT18">
         <v>12</v>
       </c>
-      <c r="AO18">
-        <v>24</v>
-      </c>
-      <c r="AP18">
-        <v>16</v>
-      </c>
-      <c r="AQ18">
-        <v>60</v>
-      </c>
-      <c r="AR18">
-        <v>18</v>
-      </c>
-      <c r="AS18">
-        <v>190</v>
-      </c>
-      <c r="AT18">
-        <v>12.5</v>
-      </c>
       <c r="AU18">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AV18">
         <v>16.5</v>
       </c>
       <c r="AW18">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AX18">
-        <v>1.68</v>
+        <v>2.56</v>
       </c>
       <c r="AY18">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AZ18">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="BA18">
-        <v>95</v>
+        <v>17.5</v>
       </c>
       <c r="BB18">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="BC18">
         <v>60</v>
       </c>
       <c r="BD18">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="BE18">
         <v>1000</v>
@@ -6034,7 +6034,7 @@
         <v>1.95</v>
       </c>
       <c r="G19">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H19">
         <v>5.1</v>
@@ -6228,13 +6228,13 @@
         <v>231</v>
       </c>
       <c r="F20">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G20">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H20">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I20">
         <v>3.75</v>
@@ -6246,16 +6246,16 @@
         <v>4</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="M20">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="N20">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="P20">
         <v>1.72</v>
@@ -6315,7 +6315,7 @@
         <v>26</v>
       </c>
       <c r="AI20">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ20">
         <v>12.5</v>
@@ -6324,7 +6324,7 @@
         <v>18.5</v>
       </c>
       <c r="AL20">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM20">
         <v>980</v>
@@ -6342,13 +6342,13 @@
         <v>980</v>
       </c>
       <c r="AR20">
-        <v>4.1</v>
+        <v>21</v>
       </c>
       <c r="AS20">
         <v>36</v>
       </c>
       <c r="AT20">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU20">
         <v>980</v>
@@ -6366,16 +6366,16 @@
         <v>980</v>
       </c>
       <c r="AZ20">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="BA20">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="BB20">
         <v>3.85</v>
       </c>
       <c r="BC20">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="BD20">
         <v>4.3</v>
@@ -6431,7 +6431,7 @@
         <v>6.2</v>
       </c>
       <c r="H21">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I21">
         <v>1.82</v>
@@ -6449,49 +6449,49 @@
         <v>2.3</v>
       </c>
       <c r="N21">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="O21">
         <v>1.95</v>
       </c>
       <c r="P21">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S21">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="T21">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="U21">
         <v>980</v>
       </c>
       <c r="V21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W21">
         <v>980</v>
       </c>
       <c r="X21">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="Y21">
         <v>980</v>
       </c>
       <c r="Z21">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="AA21">
         <v>980</v>
       </c>
       <c r="AB21">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AC21">
         <v>980</v>
@@ -6503,79 +6503,79 @@
         <v>980</v>
       </c>
       <c r="AF21">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="AG21">
         <v>980</v>
       </c>
       <c r="AH21">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="AI21">
         <v>980</v>
       </c>
       <c r="AJ21">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AK21">
         <v>980</v>
       </c>
       <c r="AL21">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AM21">
         <v>980</v>
       </c>
       <c r="AN21">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="AO21">
         <v>980</v>
       </c>
       <c r="AP21">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AQ21">
         <v>980</v>
       </c>
       <c r="AR21">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AS21">
         <v>1000</v>
       </c>
       <c r="AT21">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AU21">
         <v>980</v>
       </c>
       <c r="AV21">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AW21">
         <v>980</v>
       </c>
       <c r="AX21">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="AY21">
         <v>1000</v>
       </c>
       <c r="AZ21">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BA21">
         <v>980</v>
       </c>
       <c r="BB21">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="BC21">
         <v>980</v>
       </c>
       <c r="BD21">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -6640,28 +6640,28 @@
         <v>6.8</v>
       </c>
       <c r="L22">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="M22">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="N22">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="O22">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P22">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="Q22">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="R22">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S22">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T22">
         <v>19.5</v>
@@ -6670,28 +6670,28 @@
         <v>34</v>
       </c>
       <c r="V22">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="W22">
         <v>55</v>
       </c>
       <c r="X22">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="Y22">
         <v>980</v>
       </c>
       <c r="Z22">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AA22">
         <v>980</v>
       </c>
       <c r="AB22">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC22">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD22">
         <v>12</v>
@@ -6700,13 +6700,13 @@
         <v>18</v>
       </c>
       <c r="AF22">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AG22">
         <v>980</v>
       </c>
       <c r="AH22">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AI22">
         <v>980</v>
@@ -6718,7 +6718,7 @@
         <v>10.5</v>
       </c>
       <c r="AL22">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM22">
         <v>13.5</v>
@@ -6727,16 +6727,16 @@
         <v>21</v>
       </c>
       <c r="AO22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AP22">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AQ22">
         <v>980</v>
       </c>
       <c r="AR22">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS22">
         <v>13</v>
@@ -6745,34 +6745,34 @@
         <v>11</v>
       </c>
       <c r="AU22">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AV22">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AW22">
         <v>42</v>
       </c>
       <c r="AX22">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AY22">
         <v>980</v>
       </c>
       <c r="AZ22">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="BA22">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="BB22">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="BC22">
         <v>980</v>
       </c>
       <c r="BD22">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="BE22">
         <v>1000</v>
@@ -6819,22 +6819,22 @@
         <v>234</v>
       </c>
       <c r="F23">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G23">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>2.36</v>
+        <v>2.86</v>
       </c>
       <c r="I23">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="J23">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="K23">
-        <v>8.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="L23">
         <v>1.2</v>
@@ -7016,7 +7016,7 @@
         <v>235</v>
       </c>
       <c r="F24">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G24">
         <v>1.33</v>
@@ -7064,19 +7064,19 @@
         <v>25</v>
       </c>
       <c r="V24">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="W24">
         <v>44</v>
       </c>
       <c r="X24">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y24">
         <v>130</v>
       </c>
       <c r="Z24">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AA24">
         <v>980</v>
@@ -7091,7 +7091,7 @@
         <v>12.5</v>
       </c>
       <c r="AE24">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF24">
         <v>6.8</v>
@@ -7100,7 +7100,7 @@
         <v>55</v>
       </c>
       <c r="AH24">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AI24">
         <v>980</v>
@@ -7115,7 +7115,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AM24">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN24">
         <v>26</v>
@@ -7124,7 +7124,7 @@
         <v>38</v>
       </c>
       <c r="AP24">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AQ24">
         <v>980</v>
@@ -7148,25 +7148,25 @@
         <v>46</v>
       </c>
       <c r="AX24">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AY24">
         <v>980</v>
       </c>
       <c r="AZ24">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="BA24">
         <v>5.3</v>
       </c>
       <c r="BB24">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BC24">
         <v>980</v>
       </c>
       <c r="BD24">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -7213,16 +7213,16 @@
         <v>236</v>
       </c>
       <c r="F25">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G25">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H25">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I25">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J25">
         <v>3.75</v>
@@ -7249,7 +7249,7 @@
         <v>1.65</v>
       </c>
       <c r="R25">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="S25">
         <v>2.76</v>
@@ -7273,7 +7273,7 @@
         <v>26</v>
       </c>
       <c r="Z25">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA25">
         <v>980</v>
@@ -7297,7 +7297,7 @@
         <v>15</v>
       </c>
       <c r="AH25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI25">
         <v>32</v>
@@ -7306,7 +7306,7 @@
         <v>16</v>
       </c>
       <c r="AK25">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL25">
         <v>10.5</v>
@@ -7327,43 +7327,43 @@
         <v>38</v>
       </c>
       <c r="AR25">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AS25">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AT25">
         <v>19.5</v>
       </c>
       <c r="AU25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW25">
         <v>34</v>
       </c>
       <c r="AX25">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AY25">
         <v>980</v>
       </c>
       <c r="AZ25">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BA25">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BB25">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="BC25">
         <v>21</v>
       </c>
       <c r="BD25">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE25">
         <v>980</v>
@@ -7410,157 +7410,157 @@
         <v>237</v>
       </c>
       <c r="F26">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="G26">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="J26">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K26">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="L26">
-        <v>1.87</v>
+        <v>2.44</v>
       </c>
       <c r="M26">
+        <v>2.9</v>
+      </c>
+      <c r="N26">
+        <v>1.52</v>
+      </c>
+      <c r="O26">
+        <v>1.7</v>
+      </c>
+      <c r="P26">
+        <v>1.78</v>
+      </c>
+      <c r="Q26">
+        <v>2.04</v>
+      </c>
+      <c r="R26">
+        <v>1.96</v>
+      </c>
+      <c r="S26">
+        <v>2.28</v>
+      </c>
+      <c r="T26">
         <v>4.1</v>
       </c>
-      <c r="N26">
-        <v>1.32</v>
-      </c>
-      <c r="O26">
-        <v>2.14</v>
-      </c>
-      <c r="P26">
-        <v>1.01</v>
-      </c>
-      <c r="Q26">
-        <v>1000</v>
-      </c>
-      <c r="R26">
-        <v>1.01</v>
-      </c>
-      <c r="S26">
-        <v>1000</v>
-      </c>
-      <c r="T26">
-        <v>1.49</v>
-      </c>
       <c r="U26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V26">
-        <v>2.94</v>
+        <v>4.3</v>
       </c>
       <c r="W26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X26">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="Y26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z26">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="AA26">
         <v>1000</v>
       </c>
       <c r="AB26">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="AC26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD26">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AE26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF26">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AG26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH26">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AI26">
         <v>1000</v>
       </c>
       <c r="AJ26">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AK26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL26">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AM26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN26">
         <v>6.4</v>
       </c>
       <c r="AO26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP26">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AQ26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR26">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AS26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT26">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AU26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV26">
-        <v>14</v>
+        <v>4.3</v>
       </c>
       <c r="AW26">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX26">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AY26">
         <v>1000</v>
       </c>
       <c r="AZ26">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="BA26">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="BB26">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BC26">
         <v>1000</v>
       </c>
       <c r="BD26">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -7607,13 +7607,13 @@
         <v>238</v>
       </c>
       <c r="F27">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G27">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="I27">
         <v>2.04</v>
@@ -7622,19 +7622,19 @@
         <v>4</v>
       </c>
       <c r="K27">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L27">
+        <v>2.18</v>
+      </c>
+      <c r="M27">
         <v>2.28</v>
       </c>
-      <c r="M27">
-        <v>2.4</v>
-      </c>
       <c r="N27">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O27">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="P27">
         <v>1.69</v>
@@ -7670,7 +7670,7 @@
         <v>20</v>
       </c>
       <c r="AA27">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AB27">
         <v>16</v>
@@ -7679,7 +7679,7 @@
         <v>25</v>
       </c>
       <c r="AD27">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AE27">
         <v>9.4</v>
@@ -7694,7 +7694,7 @@
         <v>16.5</v>
       </c>
       <c r="AI27">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AJ27">
         <v>25</v>
@@ -7709,55 +7709,55 @@
         <v>16.5</v>
       </c>
       <c r="AN27">
-        <v>8.4</v>
+        <v>15.5</v>
       </c>
       <c r="AO27">
         <v>18</v>
       </c>
       <c r="AP27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR27">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AS27">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AT27">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AU27">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AV27">
         <v>34</v>
       </c>
       <c r="AW27">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX27">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY27">
         <v>85</v>
       </c>
       <c r="AZ27">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BA27">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="BB27">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC27">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="BD27">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -7822,7 +7822,7 @@
         <v>4.1</v>
       </c>
       <c r="L28">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>2.22</v>
@@ -7831,7 +7831,7 @@
         <v>1.83</v>
       </c>
       <c r="O28">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>1.68</v>
@@ -7849,10 +7849,10 @@
         <v>12.5</v>
       </c>
       <c r="U28">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="V28">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="W28">
         <v>12.5</v>
@@ -7930,13 +7930,13 @@
         <v>980</v>
       </c>
       <c r="AV28">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW28">
         <v>980</v>
       </c>
       <c r="AX28">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AY28">
         <v>980</v>
@@ -7948,7 +7948,7 @@
         <v>980</v>
       </c>
       <c r="BB28">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="BC28">
         <v>17</v>
@@ -8004,22 +8004,22 @@
         <v>1.79</v>
       </c>
       <c r="G29">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="H29">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I29">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J29">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K29">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L29">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="M29">
         <v>2.34</v>
@@ -8034,34 +8034,34 @@
         <v>1.69</v>
       </c>
       <c r="Q29">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="R29">
         <v>2.06</v>
       </c>
       <c r="S29">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T29">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U29">
         <v>980</v>
       </c>
       <c r="V29">
-        <v>5.1</v>
+        <v>2.64</v>
       </c>
       <c r="W29">
         <v>980</v>
       </c>
       <c r="X29">
-        <v>5.8</v>
+        <v>2.12</v>
       </c>
       <c r="Y29">
         <v>980</v>
       </c>
       <c r="Z29">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AA29">
         <v>1000</v>
@@ -8079,25 +8079,25 @@
         <v>980</v>
       </c>
       <c r="AF29">
-        <v>5.1</v>
+        <v>2.64</v>
       </c>
       <c r="AG29">
         <v>980</v>
       </c>
       <c r="AH29">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI29">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ29">
+        <v>4.7</v>
+      </c>
+      <c r="AK29">
+        <v>980</v>
+      </c>
+      <c r="AL29">
         <v>4.6</v>
-      </c>
-      <c r="AK29">
-        <v>980</v>
-      </c>
-      <c r="AL29">
-        <v>4.5</v>
       </c>
       <c r="AM29">
         <v>980</v>
@@ -8109,31 +8109,31 @@
         <v>980</v>
       </c>
       <c r="AP29">
+        <v>5.9</v>
+      </c>
+      <c r="AQ29">
+        <v>1000</v>
+      </c>
+      <c r="AR29">
         <v>5.4</v>
       </c>
-      <c r="AQ29">
-        <v>1000</v>
-      </c>
-      <c r="AR29">
-        <v>5.2</v>
-      </c>
       <c r="AS29">
         <v>980</v>
       </c>
       <c r="AT29">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AU29">
         <v>980</v>
       </c>
       <c r="AV29">
-        <v>5.7</v>
+        <v>2.46</v>
       </c>
       <c r="AW29">
         <v>980</v>
       </c>
       <c r="AX29">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AY29">
         <v>1000</v>
@@ -8145,13 +8145,13 @@
         <v>980</v>
       </c>
       <c r="BB29">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="BC29">
         <v>1000</v>
       </c>
       <c r="BD29">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="BE29">
         <v>1000</v>
@@ -8228,16 +8228,16 @@
         <v>2.48</v>
       </c>
       <c r="P30">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="Q30">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R30">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="S30">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="T30">
         <v>8.6</v>
@@ -8246,7 +8246,7 @@
         <v>10</v>
       </c>
       <c r="V30">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="W30">
         <v>11</v>
@@ -8258,7 +8258,7 @@
         <v>25</v>
       </c>
       <c r="Z30">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="AA30">
         <v>980</v>
@@ -8273,16 +8273,16 @@
         <v>6.2</v>
       </c>
       <c r="AE30">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF30">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG30">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH30">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI30">
         <v>980</v>
@@ -8291,64 +8291,64 @@
         <v>12.5</v>
       </c>
       <c r="AK30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM30">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AN30">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AO30">
         <v>25</v>
       </c>
       <c r="AP30">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="AQ30">
         <v>75</v>
       </c>
       <c r="AR30">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="AS30">
         <v>980</v>
       </c>
       <c r="AT30">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AU30">
         <v>980</v>
       </c>
       <c r="AV30">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="AW30">
         <v>980</v>
       </c>
       <c r="AX30">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="AY30">
         <v>980</v>
       </c>
       <c r="AZ30">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="BA30">
         <v>36</v>
       </c>
       <c r="BB30">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="BC30">
         <v>55</v>
       </c>
       <c r="BD30">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -8592,157 +8592,157 @@
         <v>243</v>
       </c>
       <c r="F32">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="G32">
-        <v>13</v>
+        <v>2.18</v>
       </c>
       <c r="H32">
-        <v>2.96</v>
+        <v>3.75</v>
       </c>
       <c r="I32">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J32">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="K32">
-        <v>330</v>
+        <v>4.2</v>
       </c>
       <c r="L32">
-        <v>1.58</v>
+        <v>1.82</v>
       </c>
       <c r="M32">
-        <v>7.4</v>
+        <v>2.12</v>
       </c>
       <c r="N32">
-        <v>1.16</v>
+        <v>1.89</v>
       </c>
       <c r="O32">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="P32">
-        <v>1.12</v>
+        <v>1.77</v>
       </c>
       <c r="Q32">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="R32">
-        <v>1.12</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="T32">
         <v>10</v>
       </c>
       <c r="U32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V32">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="W32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X32">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="Y32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z32">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AA32">
         <v>1000</v>
       </c>
       <c r="AB32">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AC32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD32">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="AE32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF32">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AG32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH32">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AI32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ32">
         <v>9.6</v>
       </c>
       <c r="AK32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL32">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AM32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN32">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AO32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP32">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AQ32">
         <v>1000</v>
       </c>
       <c r="AR32">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AS32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT32">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AU32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV32">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AW32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX32">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AY32">
         <v>1000</v>
       </c>
       <c r="AZ32">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="BA32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB32">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BC32">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD32">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -8789,34 +8789,34 @@
         <v>244</v>
       </c>
       <c r="F33">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="G33">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I33">
         <v>1000</v>
       </c>
       <c r="J33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K33">
-        <v>7.8</v>
+        <v>320</v>
       </c>
       <c r="L33">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N33">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="O33">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="P33">
         <v>1.01</v>
@@ -8989,13 +8989,13 @@
         <v>5.5</v>
       </c>
       <c r="G34">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H34">
         <v>1.58</v>
       </c>
       <c r="I34">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J34">
         <v>4.9</v>
@@ -9031,13 +9031,13 @@
         <v>26</v>
       </c>
       <c r="U34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V34">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X34">
         <v>11.5</v>
@@ -9073,10 +9073,10 @@
         <v>13</v>
       </c>
       <c r="AI34">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ34">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK34">
         <v>55</v>
@@ -9088,7 +9088,7 @@
         <v>23</v>
       </c>
       <c r="AN34">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO34">
         <v>17.5</v>
@@ -9100,13 +9100,13 @@
         <v>23</v>
       </c>
       <c r="AR34">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AS34">
         <v>170</v>
       </c>
       <c r="AT34">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AU34">
         <v>60</v>
@@ -9115,25 +9115,25 @@
         <v>12.5</v>
       </c>
       <c r="AW34">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AX34">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY34">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AZ34">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="BA34">
         <v>42</v>
       </c>
       <c r="BB34">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BC34">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BD34">
         <v>16.5</v>
@@ -9183,10 +9183,10 @@
         <v>246</v>
       </c>
       <c r="F35">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="G35">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="H35">
         <v>3.05</v>
@@ -9195,22 +9195,22 @@
         <v>4.7</v>
       </c>
       <c r="J35">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="K35">
-        <v>6.4</v>
+        <v>11.5</v>
       </c>
       <c r="L35">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="M35">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="N35">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="O35">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="P35">
         <v>1.01</v>
@@ -9380,25 +9380,25 @@
         <v>247</v>
       </c>
       <c r="F36">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G36">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="I36">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="J36">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="K36">
-        <v>9.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="L36">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M36">
         <v>36</v>
@@ -9407,7 +9407,7 @@
         <v>1.05</v>
       </c>
       <c r="O36">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="P36">
         <v>1.01</v>
@@ -9577,22 +9577,22 @@
         <v>248</v>
       </c>
       <c r="F37">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G37">
         <v>1.81</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I37">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J37">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K37">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L37">
         <v>1.2</v>
@@ -9774,34 +9774,34 @@
         <v>249</v>
       </c>
       <c r="F38">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="G38">
         <v>4.3</v>
       </c>
       <c r="H38">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I38">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="J38">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="K38">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L38">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="M38">
-        <v>1.74</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>2.36</v>
+        <v>1.07</v>
       </c>
       <c r="O38">
-        <v>3.95</v>
+        <v>21</v>
       </c>
       <c r="P38">
         <v>1.01</v>
@@ -9816,115 +9816,115 @@
         <v>1000</v>
       </c>
       <c r="T38">
-        <v>5.4</v>
+        <v>1.45</v>
       </c>
       <c r="U38">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="V38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="W38">
         <v>1000</v>
       </c>
       <c r="X38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="Y38">
         <v>1000</v>
       </c>
       <c r="Z38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AA38">
         <v>1000</v>
       </c>
       <c r="AB38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AC38">
         <v>1000</v>
       </c>
       <c r="AD38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AE38">
         <v>1000</v>
       </c>
       <c r="AF38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AG38">
         <v>1000</v>
       </c>
       <c r="AH38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AI38">
         <v>1000</v>
       </c>
       <c r="AJ38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AK38">
         <v>1000</v>
       </c>
       <c r="AL38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AM38">
         <v>1000</v>
       </c>
       <c r="AN38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AO38">
         <v>1000</v>
       </c>
       <c r="AP38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AQ38">
         <v>1000</v>
       </c>
       <c r="AR38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AS38">
         <v>1000</v>
       </c>
       <c r="AT38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AU38">
         <v>1000</v>
       </c>
       <c r="AV38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AW38">
         <v>1000</v>
       </c>
       <c r="AX38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AY38">
         <v>1000</v>
       </c>
       <c r="AZ38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA38">
         <v>1000</v>
       </c>
       <c r="BB38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BC38">
         <v>1000</v>
       </c>
       <c r="BD38">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BE38">
         <v>1000</v>
@@ -9971,34 +9971,34 @@
         <v>250</v>
       </c>
       <c r="F39">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="G39">
+        <v>3.3</v>
+      </c>
+      <c r="H39">
+        <v>2.82</v>
+      </c>
+      <c r="I39">
+        <v>4.3</v>
+      </c>
+      <c r="J39">
         <v>2.94</v>
       </c>
-      <c r="H39">
-        <v>2.66</v>
-      </c>
-      <c r="I39">
-        <v>4.2</v>
-      </c>
-      <c r="J39">
-        <v>2.96</v>
-      </c>
       <c r="K39">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L39">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>4.9</v>
       </c>
       <c r="N39">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="O39">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="P39">
         <v>1.01</v>
@@ -10168,22 +10168,22 @@
         <v>251</v>
       </c>
       <c r="F40">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="G40">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="H40">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="I40">
         <v>4.1</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="K40">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L40">
         <v>1.2</v>
@@ -10210,7 +10210,7 @@
         <v>1000</v>
       </c>
       <c r="T40">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="U40">
         <v>1000</v>
@@ -10368,16 +10368,16 @@
         <v>1.2</v>
       </c>
       <c r="G41">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="H41">
-        <v>2.98</v>
+        <v>4.8</v>
       </c>
       <c r="I41">
         <v>1000</v>
       </c>
       <c r="J41">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="K41">
         <v>950</v>
@@ -10562,34 +10562,34 @@
         <v>253</v>
       </c>
       <c r="F42">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="G42">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H42">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I42">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="J42">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K42">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L42">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M42">
-        <v>7.8</v>
+        <v>26</v>
       </c>
       <c r="N42">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="O42">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="P42">
         <v>1.01</v>
@@ -10759,34 +10759,34 @@
         <v>254</v>
       </c>
       <c r="F43">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="G43">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="H43">
+        <v>2.16</v>
+      </c>
+      <c r="I43">
+        <v>4.9</v>
+      </c>
+      <c r="J43">
         <v>2.5</v>
       </c>
-      <c r="I43">
-        <v>4.6</v>
-      </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
       <c r="K43">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="L43">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M43">
-        <v>2.14</v>
+        <v>980</v>
       </c>
       <c r="N43">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
       <c r="O43">
-        <v>2.98</v>
+        <v>6.4</v>
       </c>
       <c r="P43">
         <v>1.01</v>
@@ -10965,13 +10965,13 @@
         <v>4.3</v>
       </c>
       <c r="I44">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J44">
         <v>3.45</v>
       </c>
       <c r="K44">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L44">
         <v>1.72</v>
@@ -11076,7 +11076,7 @@
         <v>980</v>
       </c>
       <c r="AT44">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU44">
         <v>980</v>
@@ -11162,7 +11162,7 @@
         <v>4.5</v>
       </c>
       <c r="I45">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J45">
         <v>4.9</v>
@@ -11183,22 +11183,22 @@
         <v>1.45</v>
       </c>
       <c r="P45">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q45">
         <v>1.57</v>
       </c>
       <c r="R45">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="S45">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T45">
         <v>4.3</v>
       </c>
       <c r="U45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V45">
         <v>4.2</v>
@@ -11207,34 +11207,34 @@
         <v>40</v>
       </c>
       <c r="X45">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="Y45">
         <v>60</v>
       </c>
       <c r="Z45">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AA45">
         <v>980</v>
       </c>
       <c r="AB45">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD45">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AE45">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF45">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG45">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH45">
         <v>4.2</v>
@@ -11243,67 +11243,67 @@
         <v>60</v>
       </c>
       <c r="AJ45">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="AK45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL45">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AM45">
         <v>13.5</v>
       </c>
       <c r="AN45">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AO45">
         <v>21</v>
       </c>
       <c r="AP45">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ45">
         <v>50</v>
       </c>
       <c r="AR45">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AS45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT45">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AU45">
         <v>18</v>
       </c>
       <c r="AV45">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AW45">
         <v>27</v>
       </c>
       <c r="AX45">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AY45">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AZ45">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="BA45">
         <v>6.2</v>
       </c>
       <c r="BB45">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="BC45">
         <v>34</v>
       </c>
       <c r="BD45">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE45">
         <v>980</v>
@@ -11353,13 +11353,13 @@
         <v>2.84</v>
       </c>
       <c r="G46">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H46">
         <v>2.5</v>
       </c>
       <c r="I46">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="J46">
         <v>3.4</v>
@@ -11392,67 +11392,67 @@
         <v>2.32</v>
       </c>
       <c r="T46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="U46">
         <v>17</v>
       </c>
       <c r="V46">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="W46">
         <v>14</v>
       </c>
       <c r="X46">
-        <v>3.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y46">
         <v>21</v>
       </c>
       <c r="Z46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AA46">
         <v>46</v>
       </c>
       <c r="AB46">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC46">
         <v>15</v>
       </c>
       <c r="AD46">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AE46">
         <v>9.800000000000001</v>
       </c>
       <c r="AF46">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AG46">
         <v>15</v>
       </c>
       <c r="AH46">
-        <v>4.1</v>
+        <v>20</v>
       </c>
       <c r="AI46">
         <v>34</v>
       </c>
       <c r="AJ46">
-        <v>3.9</v>
+        <v>14.5</v>
       </c>
       <c r="AK46">
         <v>25</v>
       </c>
       <c r="AL46">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM46">
         <v>16</v>
       </c>
       <c r="AN46">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AO46">
         <v>22</v>
@@ -11476,7 +11476,7 @@
         <v>40</v>
       </c>
       <c r="AV46">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW46">
         <v>55</v>
@@ -11547,7 +11547,7 @@
         <v>258</v>
       </c>
       <c r="F47">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="G47">
         <v>3.1</v>
@@ -11556,7 +11556,7 @@
         <v>2.22</v>
       </c>
       <c r="I47">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J47">
         <v>4.1</v>
@@ -11747,22 +11747,22 @@
         <v>3.75</v>
       </c>
       <c r="G48">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H48">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="I48">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J48">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K48">
         <v>4.4</v>
       </c>
       <c r="L48">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="M48">
         <v>2.28</v>
@@ -11771,19 +11771,19 @@
         <v>1.79</v>
       </c>
       <c r="O48">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="P48">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q48">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R48">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="S48">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T48">
         <v>12.5</v>
@@ -11804,7 +11804,7 @@
         <v>15</v>
       </c>
       <c r="Z48">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AA48">
         <v>980</v>
@@ -11834,7 +11834,7 @@
         <v>980</v>
       </c>
       <c r="AJ48">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AK48">
         <v>980</v>
@@ -11852,31 +11852,31 @@
         <v>980</v>
       </c>
       <c r="AP48">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AQ48">
         <v>980</v>
       </c>
       <c r="AR48">
+        <v>5.1</v>
+      </c>
+      <c r="AS48">
+        <v>980</v>
+      </c>
+      <c r="AT48">
         <v>5</v>
       </c>
-      <c r="AS48">
-        <v>980</v>
-      </c>
-      <c r="AT48">
-        <v>4.8</v>
-      </c>
       <c r="AU48">
         <v>980</v>
       </c>
       <c r="AV48">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AW48">
         <v>980</v>
       </c>
       <c r="AX48">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AY48">
         <v>980</v>
@@ -11888,13 +11888,13 @@
         <v>980</v>
       </c>
       <c r="BB48">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="BC48">
         <v>15.5</v>
       </c>
       <c r="BD48">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BE48">
         <v>1000</v>
@@ -12180,73 +12180,73 @@
         <v>2.94</v>
       </c>
       <c r="T50">
-        <v>4.2</v>
+        <v>22</v>
       </c>
       <c r="U50">
         <v>38</v>
       </c>
       <c r="V50">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="W50">
         <v>19.5</v>
       </c>
       <c r="X50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y50">
         <v>18.5</v>
       </c>
       <c r="Z50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA50">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB50">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC50">
         <v>34</v>
       </c>
       <c r="AD50">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE50">
         <v>14.5</v>
       </c>
       <c r="AF50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG50">
         <v>13.5</v>
       </c>
       <c r="AH50">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AI50">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ50">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AK50">
         <v>50</v>
       </c>
       <c r="AL50">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AM50">
         <v>23</v>
       </c>
       <c r="AN50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP50">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ50">
         <v>29</v>
@@ -12258,13 +12258,13 @@
         <v>980</v>
       </c>
       <c r="AT50">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AU50">
         <v>55</v>
       </c>
       <c r="AV50">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AW50">
         <v>50</v>
@@ -12279,13 +12279,13 @@
         <v>3.8</v>
       </c>
       <c r="BA50">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB50">
         <v>2.78</v>
       </c>
       <c r="BC50">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BD50">
         <v>4.2</v>
@@ -12335,157 +12335,157 @@
         <v>262</v>
       </c>
       <c r="F51">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="G51">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="H51">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="I51">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J51">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K51">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L51">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M51">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="N51">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O51">
         <v>1.84</v>
       </c>
       <c r="P51">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q51">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R51">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="S51">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="T51">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V51">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="W51">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X51">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Y51">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="Z51">
+        <v>4.2</v>
+      </c>
+      <c r="AA51">
+        <v>980</v>
+      </c>
+      <c r="AB51">
+        <v>10</v>
+      </c>
+      <c r="AC51">
+        <v>15</v>
+      </c>
+      <c r="AD51">
+        <v>8</v>
+      </c>
+      <c r="AE51">
+        <v>10.5</v>
+      </c>
+      <c r="AF51">
+        <v>11.5</v>
+      </c>
+      <c r="AG51">
+        <v>19</v>
+      </c>
+      <c r="AH51">
         <v>4</v>
       </c>
-      <c r="AA51">
-        <v>980</v>
-      </c>
-      <c r="AB51">
-        <v>9.4</v>
-      </c>
-      <c r="AC51">
+      <c r="AI51">
+        <v>980</v>
+      </c>
+      <c r="AJ51">
+        <v>11.5</v>
+      </c>
+      <c r="AK51">
+        <v>17.5</v>
+      </c>
+      <c r="AL51">
+        <v>9</v>
+      </c>
+      <c r="AM51">
+        <v>13.5</v>
+      </c>
+      <c r="AN51">
         <v>14</v>
       </c>
-      <c r="AD51">
-        <v>8.4</v>
-      </c>
-      <c r="AE51">
-        <v>12</v>
-      </c>
-      <c r="AF51">
+      <c r="AO51">
+        <v>21</v>
+      </c>
+      <c r="AP51">
+        <v>4</v>
+      </c>
+      <c r="AQ51">
+        <v>980</v>
+      </c>
+      <c r="AR51">
+        <v>19</v>
+      </c>
+      <c r="AS51">
+        <v>29</v>
+      </c>
+      <c r="AT51">
+        <v>15.5</v>
+      </c>
+      <c r="AU51">
+        <v>24</v>
+      </c>
+      <c r="AV51">
+        <v>3.95</v>
+      </c>
+      <c r="AW51">
+        <v>38</v>
+      </c>
+      <c r="AX51">
+        <v>4.2</v>
+      </c>
+      <c r="AY51">
+        <v>980</v>
+      </c>
+      <c r="AZ51">
+        <v>3.3</v>
+      </c>
+      <c r="BA51">
         <v>13</v>
       </c>
-      <c r="AG51">
-        <v>22</v>
-      </c>
-      <c r="AH51">
+      <c r="BB51">
         <v>3.95</v>
       </c>
-      <c r="AI51">
-        <v>980</v>
-      </c>
-      <c r="AJ51">
-        <v>10</v>
-      </c>
-      <c r="AK51">
-        <v>15.5</v>
-      </c>
-      <c r="AL51">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AM51">
-        <v>12.5</v>
-      </c>
-      <c r="AN51">
-        <v>14.5</v>
-      </c>
-      <c r="AO51">
-        <v>22</v>
-      </c>
-      <c r="AP51">
-        <v>3.95</v>
-      </c>
-      <c r="AQ51">
-        <v>980</v>
-      </c>
-      <c r="AR51">
-        <v>16.5</v>
-      </c>
-      <c r="AS51">
-        <v>25</v>
-      </c>
-      <c r="AT51">
-        <v>14</v>
-      </c>
-      <c r="AU51">
-        <v>22</v>
-      </c>
-      <c r="AV51">
-        <v>3.75</v>
-      </c>
-      <c r="AW51">
-        <v>36</v>
-      </c>
-      <c r="AX51">
-        <v>4</v>
-      </c>
-      <c r="AY51">
-        <v>980</v>
-      </c>
-      <c r="AZ51">
-        <v>3.05</v>
-      </c>
-      <c r="BA51">
-        <v>11.5</v>
-      </c>
-      <c r="BB51">
-        <v>3.9</v>
-      </c>
       <c r="BC51">
         <v>980</v>
       </c>
       <c r="BD51">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE51">
         <v>1000</v>
@@ -12729,157 +12729,157 @@
         <v>264</v>
       </c>
       <c r="F53">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="G53">
         <v>2.06</v>
       </c>
       <c r="H53">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I53">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J53">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K53">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="L53">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="M53">
-        <v>3.4</v>
+        <v>2.48</v>
       </c>
       <c r="N53">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="O53">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="P53">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="Q53">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="R53">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="S53">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="T53">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="U53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V53">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="W53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X53">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="Y53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z53">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AA53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB53">
         <v>9.4</v>
       </c>
       <c r="AC53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD53">
         <v>7.4</v>
       </c>
       <c r="AE53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF53">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="AG53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH53">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AI53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ53">
         <v>10.5</v>
       </c>
       <c r="AK53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL53">
         <v>9</v>
       </c>
       <c r="AM53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN53">
-        <v>1.03</v>
+        <v>13</v>
       </c>
       <c r="AO53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP53">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AQ53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR53">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="AS53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AT53">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AU53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AV53">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AW53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AX53">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AY53">
         <v>1000</v>
       </c>
       <c r="AZ53">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="BA53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BB53">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="BC53">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD53">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BE53">
         <v>1000</v>
@@ -12956,16 +12956,16 @@
         <v>1.57</v>
       </c>
       <c r="P54">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q54">
         <v>1.52</v>
       </c>
       <c r="R54">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="S54">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T54">
         <v>23</v>
@@ -13064,7 +13064,7 @@
         <v>48</v>
       </c>
       <c r="AZ54">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA54">
         <v>10.5</v>
@@ -13141,25 +13141,25 @@
         <v>3.5</v>
       </c>
       <c r="L55">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="M55">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="N55">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="O55">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P55">
         <v>1.83</v>
       </c>
       <c r="Q55">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R55">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
         <v>2.2</v>
@@ -13338,7 +13338,7 @@
         <v>3.75</v>
       </c>
       <c r="L56">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="M56">
         <v>2.24</v>
@@ -13347,7 +13347,7 @@
         <v>1.8</v>
       </c>
       <c r="O56">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P56">
         <v>1.69</v>
@@ -13389,7 +13389,7 @@
         <v>10.5</v>
       </c>
       <c r="AC56">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD56">
         <v>7.6</v>
@@ -13428,7 +13428,7 @@
         <v>21</v>
       </c>
       <c r="AP56">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ56">
         <v>55</v>
@@ -13458,7 +13458,7 @@
         <v>100</v>
       </c>
       <c r="AZ56">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="BA56">
         <v>21</v>
@@ -13470,7 +13470,7 @@
         <v>32</v>
       </c>
       <c r="BD56">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BE56">
         <v>980</v>
@@ -13520,7 +13520,7 @@
         <v>2.14</v>
       </c>
       <c r="G57">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="H57">
         <v>3.25</v>
@@ -13529,40 +13529,40 @@
         <v>3.5</v>
       </c>
       <c r="J57">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K57">
         <v>4.3</v>
       </c>
       <c r="L57">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="M57">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="N57">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="O57">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="P57">
         <v>1.56</v>
       </c>
       <c r="Q57">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="R57">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="S57">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T57">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="U57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V57">
         <v>15.5</v>
@@ -13571,7 +13571,7 @@
         <v>22</v>
       </c>
       <c r="X57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y57">
         <v>32</v>
@@ -13586,22 +13586,22 @@
         <v>12</v>
       </c>
       <c r="AC57">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD57">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE57">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AF57">
         <v>12</v>
       </c>
       <c r="AG57">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH57">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI57">
         <v>36</v>
@@ -13613,7 +13613,7 @@
         <v>18.5</v>
       </c>
       <c r="AL57">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AM57">
         <v>12.5</v>
@@ -13625,25 +13625,25 @@
         <v>17</v>
       </c>
       <c r="AP57">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ57">
         <v>40</v>
       </c>
       <c r="AR57">
-        <v>5.4</v>
+        <v>22</v>
       </c>
       <c r="AS57">
         <v>30</v>
       </c>
       <c r="AT57">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AU57">
         <v>22</v>
       </c>
       <c r="AV57">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW57">
         <v>30</v>
@@ -13655,19 +13655,19 @@
         <v>980</v>
       </c>
       <c r="AZ57">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="BA57">
         <v>11.5</v>
       </c>
       <c r="BB57">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="BC57">
         <v>24</v>
       </c>
       <c r="BD57">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="BE57">
         <v>980</v>
@@ -13714,34 +13714,34 @@
         <v>269</v>
       </c>
       <c r="F58">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="G58">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="H58">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I58">
         <v>1000</v>
       </c>
       <c r="J58">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K58">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="L58">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="M58">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="N58">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="O58">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="P58">
         <v>1.01</v>
@@ -13911,58 +13911,58 @@
         <v>270</v>
       </c>
       <c r="F59">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="G59">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="H59">
+        <v>3.25</v>
+      </c>
+      <c r="I59">
+        <v>3.55</v>
+      </c>
+      <c r="J59">
         <v>3.35</v>
-      </c>
-      <c r="I59">
-        <v>3.7</v>
-      </c>
-      <c r="J59">
-        <v>3.3</v>
       </c>
       <c r="K59">
         <v>3.55</v>
       </c>
       <c r="L59">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="M59">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="N59">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="O59">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="P59">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Q59">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S59">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T59">
         <v>10</v>
       </c>
       <c r="U59">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V59">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="W59">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="X59">
         <v>20</v>
@@ -13971,16 +13971,16 @@
         <v>29</v>
       </c>
       <c r="Z59">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA59">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB59">
         <v>8.4</v>
       </c>
       <c r="AC59">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AD59">
         <v>6.8</v>
@@ -13992,13 +13992,13 @@
         <v>13</v>
       </c>
       <c r="AG59">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH59">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI59">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ59">
         <v>12.5</v>
@@ -14013,19 +14013,19 @@
         <v>12</v>
       </c>
       <c r="AN59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO59">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP59">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AQ59">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR59">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AS59">
         <v>38</v>
@@ -14034,34 +14034,34 @@
         <v>19.5</v>
       </c>
       <c r="AU59">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AV59">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="AW59">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX59">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AY59">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AZ59">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="BA59">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BB59">
+        <v>5.4</v>
+      </c>
+      <c r="BC59">
+        <v>46</v>
+      </c>
+      <c r="BD59">
         <v>6.2</v>
-      </c>
-      <c r="BC59">
-        <v>55</v>
-      </c>
-      <c r="BD59">
-        <v>7</v>
       </c>
       <c r="BE59">
         <v>1000</v>
@@ -14108,22 +14108,22 @@
         <v>271</v>
       </c>
       <c r="F60">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G60">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H60">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I60">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J60">
         <v>3.25</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L60">
         <v>1.54</v>
@@ -14153,7 +14153,7 @@
         <v>8</v>
       </c>
       <c r="U60">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="V60">
         <v>8.199999999999999</v>
@@ -14168,7 +14168,7 @@
         <v>23</v>
       </c>
       <c r="Z60">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA60">
         <v>980</v>
@@ -14183,7 +14183,7 @@
         <v>6.8</v>
       </c>
       <c r="AE60">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AF60">
         <v>12</v>
@@ -14192,7 +14192,7 @@
         <v>980</v>
       </c>
       <c r="AH60">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AI60">
         <v>980</v>
@@ -14201,7 +14201,7 @@
         <v>12.5</v>
       </c>
       <c r="AK60">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL60">
         <v>11</v>
@@ -14216,49 +14216,49 @@
         <v>29</v>
       </c>
       <c r="AP60">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AQ60">
         <v>980</v>
       </c>
       <c r="AR60">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="AS60">
         <v>980</v>
       </c>
       <c r="AT60">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AU60">
         <v>46</v>
       </c>
       <c r="AV60">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AW60">
         <v>980</v>
       </c>
       <c r="AX60">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AY60">
         <v>980</v>
       </c>
       <c r="AZ60">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="BA60">
         <v>48</v>
       </c>
       <c r="BB60">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BC60">
         <v>980</v>
       </c>
       <c r="BD60">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BE60">
         <v>1000</v>
@@ -14326,7 +14326,7 @@
         <v>1.67</v>
       </c>
       <c r="M61">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="N61">
         <v>2.4</v>
@@ -14335,16 +14335,16 @@
         <v>2.5</v>
       </c>
       <c r="P61">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q61">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R61">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S61">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T61">
         <v>9.800000000000001</v>
@@ -14508,19 +14508,19 @@
         <v>6.4</v>
       </c>
       <c r="H62">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="I62">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="J62">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K62">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="L62">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="M62">
         <v>2.22</v>
@@ -14529,52 +14529,52 @@
         <v>1.82</v>
       </c>
       <c r="O62">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="P62">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="Q62">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="R62">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="S62">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="T62">
-        <v>11.5</v>
+        <v>3.45</v>
       </c>
       <c r="U62">
         <v>980</v>
       </c>
       <c r="V62">
-        <v>7.4</v>
+        <v>3.1</v>
       </c>
       <c r="W62">
         <v>980</v>
       </c>
       <c r="X62">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Y62">
         <v>980</v>
       </c>
       <c r="Z62">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AA62">
         <v>980</v>
       </c>
       <c r="AB62">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AC62">
         <v>980</v>
       </c>
       <c r="AD62">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE62">
         <v>980</v>
@@ -14586,73 +14586,73 @@
         <v>980</v>
       </c>
       <c r="AH62">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AI62">
         <v>980</v>
       </c>
       <c r="AJ62">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AK62">
         <v>980</v>
       </c>
       <c r="AL62">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AM62">
         <v>980</v>
       </c>
       <c r="AN62">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AO62">
         <v>980</v>
       </c>
       <c r="AP62">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AQ62">
         <v>980</v>
       </c>
       <c r="AR62">
+        <v>5</v>
+      </c>
+      <c r="AS62">
+        <v>1000</v>
+      </c>
+      <c r="AT62">
         <v>4</v>
       </c>
-      <c r="AS62">
-        <v>1000</v>
-      </c>
-      <c r="AT62">
-        <v>3.85</v>
-      </c>
       <c r="AU62">
         <v>1000</v>
       </c>
       <c r="AV62">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AW62">
         <v>1000</v>
       </c>
       <c r="AX62">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AY62">
         <v>1000</v>
       </c>
       <c r="AZ62">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="BA62">
         <v>1000</v>
       </c>
       <c r="BB62">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BC62">
         <v>980</v>
       </c>
       <c r="BD62">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BE62">
         <v>1000</v>
@@ -14699,16 +14699,16 @@
         <v>274</v>
       </c>
       <c r="F63">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G63">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="H63">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I63">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J63">
         <v>3.1</v>
@@ -14732,22 +14732,22 @@
         <v>1.93</v>
       </c>
       <c r="Q63">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R63">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S63">
         <v>2.08</v>
       </c>
       <c r="T63">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="U63">
         <v>980</v>
       </c>
       <c r="V63">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W63">
         <v>980</v>
@@ -14756,16 +14756,16 @@
         <v>17.5</v>
       </c>
       <c r="Y63">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z63">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA63">
         <v>1000</v>
       </c>
       <c r="AB63">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AC63">
         <v>980</v>
@@ -14801,25 +14801,25 @@
         <v>980</v>
       </c>
       <c r="AN63">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO63">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP63">
+        <v>7.6</v>
+      </c>
+      <c r="AQ63">
+        <v>1000</v>
+      </c>
+      <c r="AR63">
+        <v>7.2</v>
+      </c>
+      <c r="AS63">
+        <v>980</v>
+      </c>
+      <c r="AT63">
         <v>7.4</v>
-      </c>
-      <c r="AQ63">
-        <v>1000</v>
-      </c>
-      <c r="AR63">
-        <v>7</v>
-      </c>
-      <c r="AS63">
-        <v>980</v>
-      </c>
-      <c r="AT63">
-        <v>7.2</v>
       </c>
       <c r="AU63">
         <v>980</v>
@@ -14831,25 +14831,25 @@
         <v>1000</v>
       </c>
       <c r="AX63">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AY63">
         <v>1000</v>
       </c>
       <c r="AZ63">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="BA63">
         <v>980</v>
       </c>
       <c r="BB63">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="BC63">
         <v>980</v>
       </c>
       <c r="BD63">
-        <v>3.35</v>
+        <v>1.76</v>
       </c>
       <c r="BE63">
         <v>1000</v>
@@ -14896,37 +14896,37 @@
         <v>275</v>
       </c>
       <c r="F64">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="G64">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H64">
         <v>2.52</v>
       </c>
       <c r="I64">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J64">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K64">
         <v>3.45</v>
       </c>
       <c r="L64">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="M64">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="N64">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O64">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="P64">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q64">
         <v>2.16</v>
@@ -14950,13 +14950,13 @@
         <v>10.5</v>
       </c>
       <c r="X64">
-        <v>5.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y64">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z64">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA64">
         <v>980</v>
@@ -14968,7 +14968,7 @@
         <v>11.5</v>
       </c>
       <c r="AD64">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="AE64">
         <v>980</v>
@@ -14980,13 +14980,13 @@
         <v>980</v>
       </c>
       <c r="AH64">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AI64">
         <v>980</v>
       </c>
       <c r="AJ64">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK64">
         <v>980</v>
@@ -15004,13 +15004,13 @@
         <v>980</v>
       </c>
       <c r="AP64">
+        <v>6.6</v>
+      </c>
+      <c r="AQ64">
+        <v>1000</v>
+      </c>
+      <c r="AR64">
         <v>6.2</v>
-      </c>
-      <c r="AQ64">
-        <v>1000</v>
-      </c>
-      <c r="AR64">
-        <v>4.8</v>
       </c>
       <c r="AS64">
         <v>980</v>
@@ -15022,25 +15022,25 @@
         <v>980</v>
       </c>
       <c r="AV64">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AW64">
         <v>1000</v>
       </c>
       <c r="AX64">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="AY64">
         <v>1000</v>
       </c>
       <c r="AZ64">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BA64">
         <v>980</v>
       </c>
       <c r="BB64">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="BC64">
         <v>980</v>
@@ -15093,10 +15093,10 @@
         <v>276</v>
       </c>
       <c r="F65">
+        <v>1.49</v>
+      </c>
+      <c r="G65">
         <v>1.5</v>
-      </c>
-      <c r="G65">
-        <v>1.51</v>
       </c>
       <c r="H65">
         <v>7.4</v>
@@ -15111,16 +15111,16 @@
         <v>5.1</v>
       </c>
       <c r="L65">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="M65">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="N65">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O65">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P65">
         <v>1.81</v>
@@ -15132,7 +15132,7 @@
         <v>2.14</v>
       </c>
       <c r="S65">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T65">
         <v>19.5</v>
@@ -15290,22 +15290,22 @@
         <v>277</v>
       </c>
       <c r="F66">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="G66">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H66">
         <v>2.58</v>
       </c>
       <c r="I66">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J66">
         <v>3.4</v>
       </c>
       <c r="K66">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L66">
         <v>1.79</v>
@@ -15332,31 +15332,31 @@
         <v>2.3</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="U66">
         <v>980</v>
       </c>
       <c r="V66">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="W66">
         <v>980</v>
       </c>
       <c r="X66">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="Y66">
         <v>980</v>
       </c>
       <c r="Z66">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="AA66">
         <v>980</v>
       </c>
       <c r="AB66">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AC66">
         <v>980</v>
@@ -15368,79 +15368,79 @@
         <v>980</v>
       </c>
       <c r="AF66">
-        <v>2</v>
+        <v>2.58</v>
       </c>
       <c r="AG66">
         <v>980</v>
       </c>
       <c r="AH66">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AI66">
         <v>1000</v>
       </c>
       <c r="AJ66">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="AK66">
         <v>980</v>
       </c>
       <c r="AL66">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AM66">
         <v>980</v>
       </c>
       <c r="AN66">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="AO66">
         <v>980</v>
       </c>
       <c r="AP66">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>980</v>
       </c>
       <c r="AR66">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="AS66">
         <v>980</v>
       </c>
       <c r="AT66">
-        <v>1.49</v>
+        <v>1.81</v>
       </c>
       <c r="AU66">
         <v>1000</v>
       </c>
       <c r="AV66">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AW66">
         <v>1000</v>
       </c>
       <c r="AX66">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="AY66">
         <v>1000</v>
       </c>
       <c r="AZ66">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="BA66">
         <v>980</v>
       </c>
       <c r="BB66">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="BC66">
         <v>980</v>
       </c>
       <c r="BD66">
-        <v>2.86</v>
+        <v>1.75</v>
       </c>
       <c r="BE66">
         <v>1000</v>
@@ -15687,154 +15687,154 @@
         <v>3.35</v>
       </c>
       <c r="G68">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H68">
         <v>2.28</v>
       </c>
       <c r="I68">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J68">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K68">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L68">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="M68">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="N68">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="O68">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="P68">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="Q68">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="R68">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="S68">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T68">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="U68">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="V68">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="W68">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="X68">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y68">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Z68">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA68">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB68">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC68">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD68">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE68">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AF68">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG68">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH68">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI68">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AJ68">
         <v>20</v>
       </c>
       <c r="AK68">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL68">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM68">
         <v>16.5</v>
       </c>
       <c r="AN68">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AO68">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AP68">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AQ68">
         <v>980</v>
       </c>
       <c r="AR68">
+        <v>6.6</v>
+      </c>
+      <c r="AS68">
+        <v>980</v>
+      </c>
+      <c r="AT68">
         <v>6.2</v>
       </c>
-      <c r="AS68">
-        <v>980</v>
-      </c>
-      <c r="AT68">
-        <v>5.9</v>
-      </c>
       <c r="AU68">
         <v>980</v>
       </c>
       <c r="AV68">
+        <v>6.6</v>
+      </c>
+      <c r="AW68">
+        <v>980</v>
+      </c>
+      <c r="AX68">
+        <v>6.8</v>
+      </c>
+      <c r="AY68">
+        <v>980</v>
+      </c>
+      <c r="AZ68">
         <v>6.2</v>
       </c>
-      <c r="AW68">
-        <v>980</v>
-      </c>
-      <c r="AX68">
-        <v>6.4</v>
-      </c>
-      <c r="AY68">
-        <v>980</v>
-      </c>
-      <c r="AZ68">
-        <v>6</v>
-      </c>
       <c r="BA68">
         <v>980</v>
       </c>
       <c r="BB68">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BC68">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="BD68">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE68">
         <v>1000</v>
@@ -15884,16 +15884,16 @@
         <v>1.59</v>
       </c>
       <c r="G69">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="H69">
         <v>5.2</v>
       </c>
       <c r="I69">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J69">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K69">
         <v>5.6</v>
@@ -15914,112 +15914,112 @@
         <v>1.9</v>
       </c>
       <c r="Q69">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="R69">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
         <v>2.74</v>
       </c>
       <c r="T69">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="U69">
         <v>980</v>
       </c>
       <c r="V69">
-        <v>1.17</v>
+        <v>2.12</v>
       </c>
       <c r="W69">
         <v>980</v>
       </c>
       <c r="X69">
+        <v>1.05</v>
+      </c>
+      <c r="Y69">
+        <v>1000</v>
+      </c>
+      <c r="Z69">
+        <v>1.05</v>
+      </c>
+      <c r="AA69">
+        <v>1000</v>
+      </c>
+      <c r="AB69">
+        <v>3.85</v>
+      </c>
+      <c r="AC69">
+        <v>980</v>
+      </c>
+      <c r="AD69">
+        <v>4</v>
+      </c>
+      <c r="AE69">
+        <v>980</v>
+      </c>
+      <c r="AF69">
+        <v>2.14</v>
+      </c>
+      <c r="AG69">
+        <v>980</v>
+      </c>
+      <c r="AH69">
+        <v>1.05</v>
+      </c>
+      <c r="AI69">
+        <v>1000</v>
+      </c>
+      <c r="AJ69">
+        <v>4.1</v>
+      </c>
+      <c r="AK69">
+        <v>980</v>
+      </c>
+      <c r="AL69">
+        <v>4.2</v>
+      </c>
+      <c r="AM69">
+        <v>980</v>
+      </c>
+      <c r="AN69">
         <v>1.14</v>
       </c>
-      <c r="Y69">
-        <v>1000</v>
-      </c>
-      <c r="Z69">
-        <v>1.17</v>
-      </c>
-      <c r="AA69">
-        <v>1000</v>
-      </c>
-      <c r="AB69">
-        <v>3.9</v>
-      </c>
-      <c r="AC69">
-        <v>980</v>
-      </c>
-      <c r="AD69">
-        <v>4.1</v>
-      </c>
-      <c r="AE69">
-        <v>980</v>
-      </c>
-      <c r="AF69">
-        <v>1.17</v>
-      </c>
-      <c r="AG69">
-        <v>980</v>
-      </c>
-      <c r="AH69">
-        <v>1.17</v>
-      </c>
-      <c r="AI69">
-        <v>1000</v>
-      </c>
-      <c r="AJ69">
-        <v>4.2</v>
-      </c>
-      <c r="AK69">
-        <v>980</v>
-      </c>
-      <c r="AL69">
-        <v>1.3</v>
-      </c>
-      <c r="AM69">
-        <v>980</v>
-      </c>
-      <c r="AN69">
-        <v>1.17</v>
-      </c>
       <c r="AO69">
         <v>980</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AQ69">
         <v>1000</v>
       </c>
       <c r="AR69">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AS69">
         <v>980</v>
       </c>
       <c r="AT69">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AU69">
         <v>980</v>
       </c>
       <c r="AV69">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AW69">
         <v>1000</v>
       </c>
       <c r="AX69">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="AY69">
         <v>1000</v>
       </c>
       <c r="AZ69">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="BA69">
         <v>980</v>
@@ -16096,7 +16096,7 @@
         <v>4.9</v>
       </c>
       <c r="L70">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="M70">
         <v>2.4</v>
@@ -16105,10 +16105,10 @@
         <v>1.72</v>
       </c>
       <c r="O70">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P70">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="Q70">
         <v>1.92</v>
@@ -16117,7 +16117,7 @@
         <v>2.08</v>
       </c>
       <c r="S70">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="T70">
         <v>17.5</v>
@@ -16126,16 +16126,16 @@
         <v>19.5</v>
       </c>
       <c r="V70">
+        <v>9.4</v>
+      </c>
+      <c r="W70">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X70">
+        <v>9</v>
+      </c>
+      <c r="Y70">
         <v>9.6</v>
-      </c>
-      <c r="W70">
-        <v>10</v>
-      </c>
-      <c r="X70">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y70">
-        <v>9.4</v>
       </c>
       <c r="Z70">
         <v>13</v>
@@ -16159,7 +16159,7 @@
         <v>9.4</v>
       </c>
       <c r="AG70">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH70">
         <v>13.5</v>
@@ -16228,7 +16228,7 @@
         <v>6.6</v>
       </c>
       <c r="BD70">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BE70">
         <v>1000</v>
@@ -16275,7 +16275,7 @@
         <v>282</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G71">
         <v>2.04</v>
@@ -16317,7 +16317,7 @@
         <v>2.3</v>
       </c>
       <c r="T71">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U71">
         <v>15.5</v>
@@ -16344,7 +16344,7 @@
         <v>9.4</v>
       </c>
       <c r="AC71">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD71">
         <v>7.8</v>
@@ -16410,7 +16410,7 @@
         <v>55</v>
       </c>
       <c r="AY71">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AZ71">
         <v>11</v>
@@ -16425,7 +16425,7 @@
         <v>44</v>
       </c>
       <c r="BD71">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BE71">
         <v>980</v>
@@ -16472,22 +16472,22 @@
         <v>283</v>
       </c>
       <c r="F72">
+        <v>2.84</v>
+      </c>
+      <c r="G72">
+        <v>2.86</v>
+      </c>
+      <c r="H72">
         <v>2.8</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>2.82</v>
       </c>
-      <c r="H72">
-        <v>2.84</v>
-      </c>
-      <c r="I72">
-        <v>2.86</v>
-      </c>
       <c r="J72">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L72">
         <v>1.82</v>
@@ -16541,7 +16541,7 @@
         <v>10</v>
       </c>
       <c r="AC72">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD72">
         <v>7</v>
@@ -16622,7 +16622,7 @@
         <v>32</v>
       </c>
       <c r="BD72">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BE72">
         <v>1000</v>
@@ -16672,7 +16672,7 @@
         <v>1.61</v>
       </c>
       <c r="G73">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H73">
         <v>6</v>
@@ -16687,34 +16687,34 @@
         <v>4.6</v>
       </c>
       <c r="L73">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="M73">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O73">
         <v>2.1</v>
       </c>
       <c r="P73">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="Q73">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R73">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="T73">
         <v>11.5</v>
       </c>
       <c r="U73">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V73">
         <v>16.5</v>
@@ -16723,13 +16723,13 @@
         <v>22</v>
       </c>
       <c r="X73">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Y73">
         <v>980</v>
       </c>
       <c r="Z73">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA73">
         <v>980</v>
@@ -16738,13 +16738,13 @@
         <v>6.6</v>
       </c>
       <c r="AC73">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD73">
         <v>8.199999999999999</v>
       </c>
       <c r="AE73">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF73">
         <v>19</v>
@@ -16753,7 +16753,7 @@
         <v>980</v>
       </c>
       <c r="AH73">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI73">
         <v>980</v>
@@ -16777,7 +16777,7 @@
         <v>980</v>
       </c>
       <c r="AP73">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ73">
         <v>980</v>
@@ -16795,31 +16795,31 @@
         <v>19.5</v>
       </c>
       <c r="AV73">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AW73">
         <v>980</v>
       </c>
       <c r="AX73">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AY73">
         <v>980</v>
       </c>
       <c r="AZ73">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BA73">
         <v>11.5</v>
       </c>
       <c r="BB73">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BC73">
         <v>980</v>
       </c>
       <c r="BD73">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BE73">
         <v>1000</v>
@@ -16866,7 +16866,7 @@
         <v>285</v>
       </c>
       <c r="F74">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G74">
         <v>2.66</v>
@@ -16884,7 +16884,7 @@
         <v>3.55</v>
       </c>
       <c r="L74">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M74">
         <v>1.99</v>
@@ -16893,40 +16893,40 @@
         <v>2.02</v>
       </c>
       <c r="O74">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="P74">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Q74">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R74">
         <v>2.1</v>
       </c>
       <c r="S74">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="T74">
         <v>11.5</v>
       </c>
       <c r="U74">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V74">
         <v>10.5</v>
       </c>
       <c r="W74">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X74">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y74">
         <v>21</v>
       </c>
       <c r="Z74">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AA74">
         <v>55</v>
@@ -16938,10 +16938,10 @@
         <v>11</v>
       </c>
       <c r="AD74">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE74">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF74">
         <v>12</v>
@@ -16950,7 +16950,7 @@
         <v>13.5</v>
       </c>
       <c r="AH74">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI74">
         <v>38</v>
@@ -16959,13 +16959,13 @@
         <v>14.5</v>
       </c>
       <c r="AK74">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL74">
         <v>10.5</v>
       </c>
       <c r="AM74">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN74">
         <v>16</v>
@@ -16974,7 +16974,7 @@
         <v>18.5</v>
       </c>
       <c r="AP74">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AQ74">
         <v>55</v>
@@ -16986,37 +16986,37 @@
         <v>40</v>
       </c>
       <c r="AT74">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU74">
         <v>32</v>
       </c>
       <c r="AV74">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AW74">
         <v>46</v>
       </c>
       <c r="AX74">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AY74">
         <v>980</v>
       </c>
       <c r="AZ74">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BA74">
         <v>25</v>
       </c>
       <c r="BB74">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC74">
         <v>34</v>
       </c>
       <c r="BD74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE74">
         <v>1000</v>
@@ -17066,31 +17066,31 @@
         <v>1.14</v>
       </c>
       <c r="G75">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="H75">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I75">
         <v>980</v>
       </c>
       <c r="J75">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="K75">
         <v>950</v>
       </c>
       <c r="L75">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="M75">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="O75">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="P75">
         <v>1.01</v>
@@ -17260,10 +17260,10 @@
         <v>287</v>
       </c>
       <c r="F76">
-        <v>1.49</v>
+        <v>1.23</v>
       </c>
       <c r="G76">
-        <v>2.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H76">
         <v>3.7</v>
@@ -17272,7 +17272,7 @@
         <v>980</v>
       </c>
       <c r="J76">
-        <v>2.36</v>
+        <v>1.2</v>
       </c>
       <c r="K76">
         <v>330</v>
@@ -17287,7 +17287,7 @@
         <v>2.06</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="P76">
         <v>1.12</v>
@@ -17457,13 +17457,13 @@
         <v>288</v>
       </c>
       <c r="F77">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G77">
         <v>16</v>
       </c>
       <c r="H77">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="I77">
         <v>13.5</v>
@@ -17523,13 +17523,13 @@
         <v>1000</v>
       </c>
       <c r="AB77">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AC77">
         <v>980</v>
       </c>
       <c r="AD77">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE77">
         <v>980</v>
@@ -17654,19 +17654,19 @@
         <v>289</v>
       </c>
       <c r="F78">
-        <v>2.62</v>
+        <v>5.3</v>
       </c>
       <c r="G78">
         <v>6.8</v>
       </c>
       <c r="H78">
+        <v>1.62</v>
+      </c>
+      <c r="I78">
         <v>1.71</v>
       </c>
-      <c r="I78">
-        <v>2.68</v>
-      </c>
       <c r="J78">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="K78">
         <v>4.4</v>
@@ -17726,7 +17726,7 @@
         <v>1000</v>
       </c>
       <c r="AD78">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="AE78">
         <v>8.4</v>
@@ -17869,19 +17869,19 @@
         <v>3.8</v>
       </c>
       <c r="L79">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="O79">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="P79">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q79">
         <v>1.93</v>
@@ -17890,7 +17890,7 @@
         <v>1.88</v>
       </c>
       <c r="S79">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T79">
         <v>10.5</v>
@@ -17911,7 +17911,7 @@
         <v>30</v>
       </c>
       <c r="Z79">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="AA79">
         <v>80</v>
@@ -17920,13 +17920,13 @@
         <v>8.6</v>
       </c>
       <c r="AC79">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD79">
         <v>7.2</v>
       </c>
       <c r="AE79">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AF79">
         <v>11</v>
@@ -17935,7 +17935,7 @@
         <v>18.5</v>
       </c>
       <c r="AH79">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AI79">
         <v>55</v>
@@ -17959,7 +17959,7 @@
         <v>23</v>
       </c>
       <c r="AP79">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AQ79">
         <v>65</v>
@@ -17971,37 +17971,37 @@
         <v>36</v>
       </c>
       <c r="AT79">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AU79">
         <v>30</v>
       </c>
       <c r="AV79">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="AW79">
         <v>50</v>
       </c>
       <c r="AX79">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="AY79">
         <v>130</v>
       </c>
       <c r="AZ79">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="BA79">
         <v>23</v>
       </c>
       <c r="BB79">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="BC79">
         <v>50</v>
       </c>
       <c r="BD79">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="BE79">
         <v>1000</v>
@@ -18096,25 +18096,25 @@
         <v>980</v>
       </c>
       <c r="V80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W80">
         <v>980</v>
       </c>
       <c r="X80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Y80">
         <v>1000</v>
       </c>
       <c r="Z80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AA80">
         <v>1000</v>
       </c>
       <c r="AB80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC80">
         <v>980</v>
@@ -18126,79 +18126,79 @@
         <v>980</v>
       </c>
       <c r="AF80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AG80">
         <v>980</v>
       </c>
       <c r="AH80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AI80">
         <v>1000</v>
       </c>
       <c r="AJ80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AK80">
         <v>1000</v>
       </c>
       <c r="AL80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AM80">
         <v>980</v>
       </c>
       <c r="AN80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AO80">
         <v>980</v>
       </c>
       <c r="AP80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AQ80">
         <v>1000</v>
       </c>
       <c r="AR80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AS80">
         <v>1000</v>
       </c>
       <c r="AT80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AU80">
         <v>1000</v>
       </c>
       <c r="AV80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AW80">
         <v>1000</v>
       </c>
       <c r="AX80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AY80">
         <v>1000</v>
       </c>
       <c r="AZ80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BA80">
         <v>1000</v>
       </c>
       <c r="BB80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BC80">
         <v>1000</v>
       </c>
       <c r="BD80">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BE80">
         <v>1000</v>
@@ -18245,34 +18245,34 @@
         <v>292</v>
       </c>
       <c r="F81">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="G81">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H81">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I81">
         <v>5.1</v>
       </c>
       <c r="J81">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L81">
+        <v>1.58</v>
+      </c>
+      <c r="M81">
+        <v>2.52</v>
+      </c>
+      <c r="N81">
         <v>1.65</v>
       </c>
-      <c r="M81">
-        <v>2.84</v>
-      </c>
-      <c r="N81">
-        <v>1.54</v>
-      </c>
       <c r="O81">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="P81">
         <v>1.12</v>
@@ -18442,22 +18442,22 @@
         <v>293</v>
       </c>
       <c r="F82">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G82">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H82">
         <v>1.45</v>
       </c>
       <c r="I82">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J82">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L82">
         <v>2.48</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-26.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="338">
   <si>
     <t>League</t>
   </si>
@@ -334,6 +334,9 @@
     <t>Chilean Primera Division</t>
   </si>
   <si>
+    <t>Paraguayan Primera Division</t>
+  </si>
+  <si>
     <t>Ecuadorian Serie A</t>
   </si>
   <si>
@@ -406,6 +409,9 @@
     <t>20:00:00</t>
   </si>
   <si>
+    <t>20:30:00</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
@@ -592,24 +598,24 @@
     <t>Waterford</t>
   </si>
   <si>
+    <t>Drogheda</t>
+  </si>
+  <si>
     <t>Airdrieonians</t>
   </si>
   <si>
-    <t>Drogheda</t>
-  </si>
-  <si>
     <t>Dundalk</t>
   </si>
   <si>
+    <t>Athlone Town</t>
+  </si>
+  <si>
+    <t>Treaty United</t>
+  </si>
+  <si>
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Treaty United</t>
-  </si>
-  <si>
-    <t>Athlone Town</t>
-  </si>
-  <si>
     <t>Eupen</t>
   </si>
   <si>
@@ -646,6 +652,9 @@
     <t>OHiggins</t>
   </si>
   <si>
+    <t>Sportivo Trinidense</t>
+  </si>
+  <si>
     <t>Guarani</t>
   </si>
   <si>
@@ -835,24 +844,24 @@
     <t>Derry City</t>
   </si>
   <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
     <t>Dundee Utd</t>
   </si>
   <si>
-    <t>Sligo Rovers</t>
-  </si>
-  <si>
     <t>Bohemians</t>
   </si>
   <si>
+    <t>Cobh Ramblers</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
     <t>Salernitana</t>
   </si>
   <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Cobh Ramblers</t>
-  </si>
-  <si>
     <t>Charleroi</t>
   </si>
   <si>
@@ -889,6 +898,9 @@
     <t>Union Espanola</t>
   </si>
   <si>
+    <t>Sol de America</t>
+  </si>
+  <si>
     <t>Chapecoense</t>
   </si>
   <si>
@@ -898,99 +910,6 @@
     <t>CF America</t>
   </si>
   <si>
-    <t>33210821</t>
-  </si>
-  <si>
-    <t>33210816</t>
-  </si>
-  <si>
-    <t>33212178</t>
-  </si>
-  <si>
-    <t>33211656</t>
-  </si>
-  <si>
-    <t>33212265</t>
-  </si>
-  <si>
-    <t>33208680</t>
-  </si>
-  <si>
-    <t>33210899</t>
-  </si>
-  <si>
-    <t>33210814</t>
-  </si>
-  <si>
-    <t>33218176</t>
-  </si>
-  <si>
-    <t>33193867</t>
-  </si>
-  <si>
-    <t>33210202</t>
-  </si>
-  <si>
-    <t>33210144</t>
-  </si>
-  <si>
-    <t>33210042</t>
-  </si>
-  <si>
-    <t>33218178</t>
-  </si>
-  <si>
-    <t>33211728</t>
-  </si>
-  <si>
-    <t>33211969</t>
-  </si>
-  <si>
-    <t>33211973</t>
-  </si>
-  <si>
-    <t>33209724</t>
-  </si>
-  <si>
-    <t>33211863</t>
-  </si>
-  <si>
-    <t>33208688</t>
-  </si>
-  <si>
-    <t>33192544</t>
-  </si>
-  <si>
-    <t>33208685</t>
-  </si>
-  <si>
-    <t>33208686</t>
-  </si>
-  <si>
-    <t>33212616</t>
-  </si>
-  <si>
-    <t>33208678</t>
-  </si>
-  <si>
-    <t>33208667</t>
-  </si>
-  <si>
-    <t>33193012</t>
-  </si>
-  <si>
-    <t>33192688</t>
-  </si>
-  <si>
-    <t>33211974</t>
-  </si>
-  <si>
-    <t>33210126</t>
-  </si>
-  <si>
-    <t>33215341</t>
-  </si>
-  <si>
     <t>33215560</t>
   </si>
   <si>
@@ -1003,6 +922,9 @@
     <t>33213342</t>
   </si>
   <si>
+    <t>33226258</t>
+  </si>
+  <si>
     <t>33215583</t>
   </si>
   <si>
@@ -1012,99 +934,6 @@
     <t>33193027</t>
   </si>
   <si>
-    <t>1.227916591</t>
-  </si>
-  <si>
-    <t>1.227916681</t>
-  </si>
-  <si>
-    <t>1.227944729</t>
-  </si>
-  <si>
-    <t>1.227926437</t>
-  </si>
-  <si>
-    <t>1.227944549</t>
-  </si>
-  <si>
-    <t>1.227884283</t>
-  </si>
-  <si>
-    <t>1.227920066</t>
-  </si>
-  <si>
-    <t>1.227916771</t>
-  </si>
-  <si>
-    <t>1.228047928</t>
-  </si>
-  <si>
-    <t>1.227626112</t>
-  </si>
-  <si>
-    <t>1.227898038</t>
-  </si>
-  <si>
-    <t>1.227898128</t>
-  </si>
-  <si>
-    <t>1.227898218</t>
-  </si>
-  <si>
-    <t>1.228046871</t>
-  </si>
-  <si>
-    <t>1.227928694</t>
-  </si>
-  <si>
-    <t>1.227933702</t>
-  </si>
-  <si>
-    <t>1.227933612</t>
-  </si>
-  <si>
-    <t>1.227893294</t>
-  </si>
-  <si>
-    <t>1.227933522</t>
-  </si>
-  <si>
-    <t>1.227880434</t>
-  </si>
-  <si>
-    <t>1.227601313</t>
-  </si>
-  <si>
-    <t>1.227875846</t>
-  </si>
-  <si>
-    <t>1.227875756</t>
-  </si>
-  <si>
-    <t>1.227942750</t>
-  </si>
-  <si>
-    <t>1.227875936</t>
-  </si>
-  <si>
-    <t>1.227884961</t>
-  </si>
-  <si>
-    <t>1.227616686</t>
-  </si>
-  <si>
-    <t>1.227610670</t>
-  </si>
-  <si>
-    <t>1.227933792</t>
-  </si>
-  <si>
-    <t>1.227899230</t>
-  </si>
-  <si>
-    <t>1.227993083</t>
-  </si>
-  <si>
     <t>1.227995851</t>
   </si>
   <si>
@@ -1117,6 +946,9 @@
     <t>1.227956134</t>
   </si>
   <si>
+    <t>1.228163284</t>
+  </si>
+  <si>
     <t>1.227995743</t>
   </si>
   <si>
@@ -1126,99 +958,6 @@
     <t>1.227620611</t>
   </si>
   <si>
-    <t>1.227916636</t>
-  </si>
-  <si>
-    <t>1.227916726</t>
-  </si>
-  <si>
-    <t>1.227944774</t>
-  </si>
-  <si>
-    <t>1.227926482</t>
-  </si>
-  <si>
-    <t>1.227944594</t>
-  </si>
-  <si>
-    <t>1.227884328</t>
-  </si>
-  <si>
-    <t>1.227920034</t>
-  </si>
-  <si>
-    <t>1.227916816</t>
-  </si>
-  <si>
-    <t>1.228047973</t>
-  </si>
-  <si>
-    <t>1.227626096</t>
-  </si>
-  <si>
-    <t>1.227898083</t>
-  </si>
-  <si>
-    <t>1.227898173</t>
-  </si>
-  <si>
-    <t>1.227898263</t>
-  </si>
-  <si>
-    <t>1.228046917</t>
-  </si>
-  <si>
-    <t>1.227928704</t>
-  </si>
-  <si>
-    <t>1.227933747</t>
-  </si>
-  <si>
-    <t>1.227933657</t>
-  </si>
-  <si>
-    <t>1.227893339</t>
-  </si>
-  <si>
-    <t>1.227933567</t>
-  </si>
-  <si>
-    <t>1.227880479</t>
-  </si>
-  <si>
-    <t>1.227601297</t>
-  </si>
-  <si>
-    <t>1.227875891</t>
-  </si>
-  <si>
-    <t>1.227875801</t>
-  </si>
-  <si>
-    <t>1.227942760</t>
-  </si>
-  <si>
-    <t>1.227875981</t>
-  </si>
-  <si>
-    <t>1.227884971</t>
-  </si>
-  <si>
-    <t>1.227616670</t>
-  </si>
-  <si>
-    <t>1.227610654</t>
-  </si>
-  <si>
-    <t>1.227933837</t>
-  </si>
-  <si>
-    <t>1.227899240</t>
-  </si>
-  <si>
-    <t>1.227993128</t>
-  </si>
-  <si>
     <t>1.227995861</t>
   </si>
   <si>
@@ -1231,6 +970,9 @@
     <t>1.227956179</t>
   </si>
   <si>
+    <t>1.228163287</t>
+  </si>
+  <si>
     <t>1.227995753</t>
   </si>
   <si>
@@ -1240,99 +982,6 @@
     <t>1.227620656</t>
   </si>
   <si>
-    <t>1.227916675</t>
-  </si>
-  <si>
-    <t>1.227916765</t>
-  </si>
-  <si>
-    <t>1.227944813</t>
-  </si>
-  <si>
-    <t>1.227926521</t>
-  </si>
-  <si>
-    <t>1.227944633</t>
-  </si>
-  <si>
-    <t>1.227884367</t>
-  </si>
-  <si>
-    <t>1.227920064</t>
-  </si>
-  <si>
-    <t>1.227916855</t>
-  </si>
-  <si>
-    <t>1.228048012</t>
-  </si>
-  <si>
-    <t>1.227626111</t>
-  </si>
-  <si>
-    <t>1.227898122</t>
-  </si>
-  <si>
-    <t>1.227898212</t>
-  </si>
-  <si>
-    <t>1.227898302</t>
-  </si>
-  <si>
-    <t>1.228046956</t>
-  </si>
-  <si>
-    <t>1.227928693</t>
-  </si>
-  <si>
-    <t>1.227933786</t>
-  </si>
-  <si>
-    <t>1.227933696</t>
-  </si>
-  <si>
-    <t>1.227893378</t>
-  </si>
-  <si>
-    <t>1.227933606</t>
-  </si>
-  <si>
-    <t>1.227880518</t>
-  </si>
-  <si>
-    <t>1.227601312</t>
-  </si>
-  <si>
-    <t>1.227875930</t>
-  </si>
-  <si>
-    <t>1.227875840</t>
-  </si>
-  <si>
-    <t>1.227942749</t>
-  </si>
-  <si>
-    <t>1.227876020</t>
-  </si>
-  <si>
-    <t>1.227884960</t>
-  </si>
-  <si>
-    <t>1.227616685</t>
-  </si>
-  <si>
-    <t>1.227610669</t>
-  </si>
-  <si>
-    <t>1.227933876</t>
-  </si>
-  <si>
-    <t>1.227899229</t>
-  </si>
-  <si>
-    <t>1.227993167</t>
-  </si>
-  <si>
     <t>1.227995850</t>
   </si>
   <si>
@@ -1345,6 +994,9 @@
     <t>1.227956218</t>
   </si>
   <si>
+    <t>1.228163331</t>
+  </si>
+  <si>
     <t>1.227995742</t>
   </si>
   <si>
@@ -1354,99 +1006,6 @@
     <t>1.227620695</t>
   </si>
   <si>
-    <t>1.227916600</t>
-  </si>
-  <si>
-    <t>1.227916690</t>
-  </si>
-  <si>
-    <t>1.227944738</t>
-  </si>
-  <si>
-    <t>1.227926446</t>
-  </si>
-  <si>
-    <t>1.227944558</t>
-  </si>
-  <si>
-    <t>1.227884292</t>
-  </si>
-  <si>
-    <t>1.227920083</t>
-  </si>
-  <si>
-    <t>1.227916780</t>
-  </si>
-  <si>
-    <t>1.228047937</t>
-  </si>
-  <si>
-    <t>1.227626121</t>
-  </si>
-  <si>
-    <t>1.227898047</t>
-  </si>
-  <si>
-    <t>1.227898137</t>
-  </si>
-  <si>
-    <t>1.227898227</t>
-  </si>
-  <si>
-    <t>1.228046881</t>
-  </si>
-  <si>
-    <t>1.227928703</t>
-  </si>
-  <si>
-    <t>1.227933711</t>
-  </si>
-  <si>
-    <t>1.227933621</t>
-  </si>
-  <si>
-    <t>1.227893303</t>
-  </si>
-  <si>
-    <t>1.227933531</t>
-  </si>
-  <si>
-    <t>1.227880443</t>
-  </si>
-  <si>
-    <t>1.227601322</t>
-  </si>
-  <si>
-    <t>1.227875855</t>
-  </si>
-  <si>
-    <t>1.227875765</t>
-  </si>
-  <si>
-    <t>1.227942759</t>
-  </si>
-  <si>
-    <t>1.227875945</t>
-  </si>
-  <si>
-    <t>1.227884970</t>
-  </si>
-  <si>
-    <t>1.227616695</t>
-  </si>
-  <si>
-    <t>1.227610679</t>
-  </si>
-  <si>
-    <t>1.227933801</t>
-  </si>
-  <si>
-    <t>1.227899239</t>
-  </si>
-  <si>
-    <t>1.227993092</t>
-  </si>
-  <si>
     <t>1.227995860</t>
   </si>
   <si>
@@ -1457,6 +1016,9 @@
   </si>
   <si>
     <t>1.227956143</t>
+  </si>
+  <si>
+    <t>1.228163332</t>
   </si>
   <si>
     <t>1.227995752</t>
@@ -1823,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM82"/>
+  <dimension ref="A1:BM83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2031,16 +1593,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F2">
         <v>2.16</v>
@@ -2228,16 +1790,16 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F3">
         <v>2.6</v>
@@ -2425,16 +1987,16 @@
         <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F4">
         <v>2.22</v>
@@ -2622,16 +2184,16 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F5">
         <v>1.87</v>
@@ -2819,16 +2381,16 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F6">
         <v>2.28</v>
@@ -3016,16 +2578,16 @@
         <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7">
         <v>2.58</v>
@@ -3213,16 +2775,16 @@
         <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F8">
         <v>2.94</v>
@@ -3410,16 +2972,16 @@
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F9">
         <v>2.26</v>
@@ -3607,16 +3169,16 @@
         <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F10">
         <v>1.93</v>
@@ -3804,16 +3366,16 @@
         <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F11">
         <v>2.24</v>
@@ -4001,16 +3563,16 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F12">
         <v>2.6</v>
@@ -4198,16 +3760,16 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F13">
         <v>1.45</v>
@@ -4395,16 +3957,16 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F14">
         <v>1.3</v>
@@ -4592,16 +4154,16 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F15">
         <v>2.3</v>
@@ -4789,16 +4351,16 @@
         <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F16">
         <v>1.17</v>
@@ -4986,16 +4548,16 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F17">
         <v>2.1</v>
@@ -5183,16 +4745,16 @@
         <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F18">
         <v>1.81</v>
@@ -5380,16 +4942,16 @@
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F19">
         <v>1.96</v>
@@ -5577,16 +5139,16 @@
         <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F20">
         <v>2.24</v>
@@ -5774,16 +5336,16 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F21">
         <v>4.5</v>
@@ -5971,16 +5533,16 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F22">
         <v>1.29</v>
@@ -6168,16 +5730,16 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F23">
         <v>2.12</v>
@@ -6365,16 +5927,16 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F24">
         <v>1.29</v>
@@ -6562,16 +6124,16 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F25">
         <v>2.32</v>
@@ -6759,16 +6321,16 @@
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F26">
         <v>1.32</v>
@@ -6956,16 +6518,16 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E27" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F27">
         <v>3.9</v>
@@ -7153,16 +6715,16 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F28">
         <v>3.65</v>
@@ -7350,16 +6912,16 @@
         <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F29">
         <v>1.79</v>
@@ -7547,16 +7109,16 @@
         <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F30">
         <v>2.44</v>
@@ -7744,16 +7306,16 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F31">
         <v>4.6</v>
@@ -7941,16 +7503,16 @@
         <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F32">
         <v>2.06</v>
@@ -8138,16 +7700,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F33">
         <v>1.04</v>
@@ -8335,16 +7897,16 @@
         <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -8532,16 +8094,16 @@
         <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F35">
         <v>2.26</v>
@@ -8729,16 +8291,16 @@
         <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F36">
         <v>2.36</v>
@@ -8926,16 +8488,16 @@
         <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F37">
         <v>1.41</v>
@@ -9123,16 +8685,16 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F38">
         <v>3.85</v>
@@ -9320,16 +8882,16 @@
         <v>77</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E39" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F39">
         <v>1.98</v>
@@ -9517,16 +9079,16 @@
         <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F40">
         <v>2.04</v>
@@ -9714,16 +9276,16 @@
         <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F41">
         <v>1.68</v>
@@ -9911,16 +9473,16 @@
         <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F42">
         <v>1.52</v>
@@ -10108,16 +9670,16 @@
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F43">
         <v>1.78</v>
@@ -10305,16 +9867,16 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F44">
         <v>1.97</v>
@@ -10502,16 +10064,16 @@
         <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F45">
         <v>1.8</v>
@@ -10669,8 +10231,8 @@
       <c r="BE45">
         <v>980</v>
       </c>
-      <c r="BF45" t="s">
-        <v>294</v>
+      <c r="BF45">
+        <v>33210821</v>
       </c>
       <c r="BG45">
         <v>48453</v>
@@ -10681,17 +10243,17 @@
       <c r="BI45">
         <v>58805</v>
       </c>
-      <c r="BJ45" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>370</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>408</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>446</v>
+      <c r="BJ45">
+        <v>1.227916591</v>
+      </c>
+      <c r="BK45">
+        <v>1.227916636</v>
+      </c>
+      <c r="BL45">
+        <v>1.227916675</v>
+      </c>
+      <c r="BM45">
+        <v>1.2279166</v>
       </c>
     </row>
     <row r="46" spans="1:65">
@@ -10699,16 +10261,16 @@
         <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F46">
         <v>2.78</v>
@@ -10866,8 +10428,8 @@
       <c r="BE46">
         <v>980</v>
       </c>
-      <c r="BF46" t="s">
-        <v>295</v>
+      <c r="BF46">
+        <v>33210816</v>
       </c>
       <c r="BG46">
         <v>48455</v>
@@ -10878,17 +10440,17 @@
       <c r="BI46">
         <v>58805</v>
       </c>
-      <c r="BJ46" t="s">
-        <v>333</v>
-      </c>
-      <c r="BK46" t="s">
-        <v>371</v>
-      </c>
-      <c r="BL46" t="s">
-        <v>409</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>447</v>
+      <c r="BJ46">
+        <v>1.227916681</v>
+      </c>
+      <c r="BK46">
+        <v>1.227916726</v>
+      </c>
+      <c r="BL46">
+        <v>1.227916765</v>
+      </c>
+      <c r="BM46">
+        <v>1.22791669</v>
       </c>
     </row>
     <row r="47" spans="1:65">
@@ -10896,16 +10458,16 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F47">
         <v>2.98</v>
@@ -11063,8 +10625,8 @@
       <c r="BE47">
         <v>980</v>
       </c>
-      <c r="BF47" t="s">
-        <v>296</v>
+      <c r="BF47">
+        <v>33212178</v>
       </c>
       <c r="BG47">
         <v>4987328</v>
@@ -11075,17 +10637,17 @@
       <c r="BI47">
         <v>58805</v>
       </c>
-      <c r="BJ47" t="s">
-        <v>334</v>
-      </c>
-      <c r="BK47" t="s">
-        <v>372</v>
-      </c>
-      <c r="BL47" t="s">
-        <v>410</v>
-      </c>
-      <c r="BM47" t="s">
-        <v>448</v>
+      <c r="BJ47">
+        <v>1.227944729</v>
+      </c>
+      <c r="BK47">
+        <v>1.227944774</v>
+      </c>
+      <c r="BL47">
+        <v>1.227944813</v>
+      </c>
+      <c r="BM47">
+        <v>1.227944738</v>
       </c>
     </row>
     <row r="48" spans="1:65">
@@ -11093,16 +10655,16 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F48">
         <v>3.9</v>
@@ -11260,8 +10822,8 @@
       <c r="BE48">
         <v>1000</v>
       </c>
-      <c r="BF48" t="s">
-        <v>297</v>
+      <c r="BF48">
+        <v>33211656</v>
       </c>
       <c r="BG48">
         <v>189803</v>
@@ -11272,17 +10834,17 @@
       <c r="BI48">
         <v>58805</v>
       </c>
-      <c r="BJ48" t="s">
-        <v>335</v>
-      </c>
-      <c r="BK48" t="s">
-        <v>373</v>
-      </c>
-      <c r="BL48" t="s">
-        <v>411</v>
-      </c>
-      <c r="BM48" t="s">
-        <v>449</v>
+      <c r="BJ48">
+        <v>1.227926437</v>
+      </c>
+      <c r="BK48">
+        <v>1.227926482</v>
+      </c>
+      <c r="BL48">
+        <v>1.227926521</v>
+      </c>
+      <c r="BM48">
+        <v>1.227926446</v>
       </c>
     </row>
     <row r="49" spans="1:65">
@@ -11290,16 +10852,16 @@
         <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F49">
         <v>1.82</v>
@@ -11457,8 +11019,8 @@
       <c r="BE49">
         <v>1000</v>
       </c>
-      <c r="BF49" t="s">
-        <v>298</v>
+      <c r="BF49">
+        <v>33212265</v>
       </c>
       <c r="BG49">
         <v>13441259</v>
@@ -11469,17 +11031,17 @@
       <c r="BI49">
         <v>58805</v>
       </c>
-      <c r="BJ49" t="s">
-        <v>336</v>
-      </c>
-      <c r="BK49" t="s">
-        <v>374</v>
-      </c>
-      <c r="BL49" t="s">
-        <v>412</v>
-      </c>
-      <c r="BM49" t="s">
-        <v>450</v>
+      <c r="BJ49">
+        <v>1.227944549</v>
+      </c>
+      <c r="BK49">
+        <v>1.227944594</v>
+      </c>
+      <c r="BL49">
+        <v>1.227944633</v>
+      </c>
+      <c r="BM49">
+        <v>1.227944558</v>
       </c>
     </row>
     <row r="50" spans="1:65">
@@ -11487,16 +11049,16 @@
         <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E50" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F50">
         <v>4.2</v>
@@ -11654,8 +11216,8 @@
       <c r="BE50">
         <v>980</v>
       </c>
-      <c r="BF50" t="s">
-        <v>299</v>
+      <c r="BF50">
+        <v>33208680</v>
       </c>
       <c r="BG50">
         <v>10698710</v>
@@ -11666,17 +11228,17 @@
       <c r="BI50">
         <v>58805</v>
       </c>
-      <c r="BJ50" t="s">
-        <v>337</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>375</v>
-      </c>
-      <c r="BL50" t="s">
-        <v>413</v>
-      </c>
-      <c r="BM50" t="s">
-        <v>451</v>
+      <c r="BJ50">
+        <v>1.227884283</v>
+      </c>
+      <c r="BK50">
+        <v>1.227884328</v>
+      </c>
+      <c r="BL50">
+        <v>1.227884367</v>
+      </c>
+      <c r="BM50">
+        <v>1.227884292</v>
       </c>
     </row>
     <row r="51" spans="1:65">
@@ -11684,16 +11246,16 @@
         <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F51">
         <v>2.4</v>
@@ -11851,8 +11413,8 @@
       <c r="BE51">
         <v>980</v>
       </c>
-      <c r="BF51" t="s">
-        <v>300</v>
+      <c r="BF51">
+        <v>33210899</v>
       </c>
       <c r="BG51">
         <v>3727829</v>
@@ -11863,17 +11425,17 @@
       <c r="BI51">
         <v>58805</v>
       </c>
-      <c r="BJ51" t="s">
-        <v>338</v>
-      </c>
-      <c r="BK51" t="s">
-        <v>376</v>
-      </c>
-      <c r="BL51" t="s">
-        <v>414</v>
-      </c>
-      <c r="BM51" t="s">
-        <v>452</v>
+      <c r="BJ51">
+        <v>1.227920066</v>
+      </c>
+      <c r="BK51">
+        <v>1.227920034</v>
+      </c>
+      <c r="BL51">
+        <v>1.227920064</v>
+      </c>
+      <c r="BM51">
+        <v>1.227920083</v>
       </c>
     </row>
     <row r="52" spans="1:65">
@@ -11881,16 +11443,16 @@
         <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F52">
         <v>2.86</v>
@@ -12048,8 +11610,8 @@
       <c r="BE52">
         <v>980</v>
       </c>
-      <c r="BF52" t="s">
-        <v>301</v>
+      <c r="BF52">
+        <v>33210814</v>
       </c>
       <c r="BG52">
         <v>8942269</v>
@@ -12060,17 +11622,17 @@
       <c r="BI52">
         <v>58805</v>
       </c>
-      <c r="BJ52" t="s">
-        <v>339</v>
-      </c>
-      <c r="BK52" t="s">
-        <v>377</v>
-      </c>
-      <c r="BL52" t="s">
-        <v>415</v>
-      </c>
-      <c r="BM52" t="s">
-        <v>453</v>
+      <c r="BJ52">
+        <v>1.227916771</v>
+      </c>
+      <c r="BK52">
+        <v>1.227916816</v>
+      </c>
+      <c r="BL52">
+        <v>1.227916855</v>
+      </c>
+      <c r="BM52">
+        <v>1.22791678</v>
       </c>
     </row>
     <row r="53" spans="1:65">
@@ -12078,16 +11640,16 @@
         <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F53">
         <v>1.98</v>
@@ -12245,8 +11807,8 @@
       <c r="BE53">
         <v>980</v>
       </c>
-      <c r="BF53" t="s">
-        <v>302</v>
+      <c r="BF53">
+        <v>33218176</v>
       </c>
       <c r="BG53">
         <v>65777</v>
@@ -12257,17 +11819,17 @@
       <c r="BI53">
         <v>58805</v>
       </c>
-      <c r="BJ53" t="s">
-        <v>340</v>
-      </c>
-      <c r="BK53" t="s">
-        <v>378</v>
-      </c>
-      <c r="BL53" t="s">
-        <v>416</v>
-      </c>
-      <c r="BM53" t="s">
-        <v>454</v>
+      <c r="BJ53">
+        <v>1.228047928</v>
+      </c>
+      <c r="BK53">
+        <v>1.228047973</v>
+      </c>
+      <c r="BL53">
+        <v>1.228048012</v>
+      </c>
+      <c r="BM53">
+        <v>1.228047937</v>
       </c>
     </row>
     <row r="54" spans="1:65">
@@ -12275,16 +11837,16 @@
         <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F54">
         <v>2.28</v>
@@ -12442,8 +12004,8 @@
       <c r="BE54">
         <v>980</v>
       </c>
-      <c r="BF54" t="s">
-        <v>303</v>
+      <c r="BF54">
+        <v>33193867</v>
       </c>
       <c r="BG54">
         <v>67143</v>
@@ -12454,17 +12016,17 @@
       <c r="BI54">
         <v>58805</v>
       </c>
-      <c r="BJ54" t="s">
-        <v>341</v>
-      </c>
-      <c r="BK54" t="s">
-        <v>379</v>
-      </c>
-      <c r="BL54" t="s">
-        <v>417</v>
-      </c>
-      <c r="BM54" t="s">
-        <v>455</v>
+      <c r="BJ54">
+        <v>1.227626112</v>
+      </c>
+      <c r="BK54">
+        <v>1.227626096</v>
+      </c>
+      <c r="BL54">
+        <v>1.227626111</v>
+      </c>
+      <c r="BM54">
+        <v>1.227626121</v>
       </c>
     </row>
     <row r="55" spans="1:65">
@@ -12472,16 +12034,16 @@
         <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E55" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F55">
         <v>2.3</v>
@@ -12639,8 +12201,8 @@
       <c r="BE55">
         <v>1000</v>
       </c>
-      <c r="BF55" t="s">
-        <v>304</v>
+      <c r="BF55">
+        <v>33210202</v>
       </c>
       <c r="BG55">
         <v>501200</v>
@@ -12651,17 +12213,17 @@
       <c r="BI55">
         <v>58805</v>
       </c>
-      <c r="BJ55" t="s">
-        <v>342</v>
-      </c>
-      <c r="BK55" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL55" t="s">
-        <v>418</v>
-      </c>
-      <c r="BM55" t="s">
-        <v>456</v>
+      <c r="BJ55">
+        <v>1.227898038</v>
+      </c>
+      <c r="BK55">
+        <v>1.227898083</v>
+      </c>
+      <c r="BL55">
+        <v>1.227898122</v>
+      </c>
+      <c r="BM55">
+        <v>1.227898047</v>
       </c>
     </row>
     <row r="56" spans="1:65">
@@ -12669,16 +12231,16 @@
         <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F56">
         <v>2.28</v>
@@ -12836,8 +12398,8 @@
       <c r="BE56">
         <v>980</v>
       </c>
-      <c r="BF56" t="s">
-        <v>305</v>
+      <c r="BF56">
+        <v>33210144</v>
       </c>
       <c r="BG56">
         <v>44504</v>
@@ -12848,17 +12410,17 @@
       <c r="BI56">
         <v>58805</v>
       </c>
-      <c r="BJ56" t="s">
-        <v>343</v>
-      </c>
-      <c r="BK56" t="s">
-        <v>381</v>
-      </c>
-      <c r="BL56" t="s">
-        <v>419</v>
-      </c>
-      <c r="BM56" t="s">
-        <v>457</v>
+      <c r="BJ56">
+        <v>1.227898128</v>
+      </c>
+      <c r="BK56">
+        <v>1.227898173</v>
+      </c>
+      <c r="BL56">
+        <v>1.227898212</v>
+      </c>
+      <c r="BM56">
+        <v>1.227898137</v>
       </c>
     </row>
     <row r="57" spans="1:65">
@@ -12866,16 +12428,16 @@
         <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F57">
         <v>2.14</v>
@@ -13033,8 +12595,8 @@
       <c r="BE57">
         <v>980</v>
       </c>
-      <c r="BF57" t="s">
-        <v>306</v>
+      <c r="BF57">
+        <v>33210042</v>
       </c>
       <c r="BG57">
         <v>7391394</v>
@@ -13045,17 +12607,17 @@
       <c r="BI57">
         <v>58805</v>
       </c>
-      <c r="BJ57" t="s">
-        <v>344</v>
-      </c>
-      <c r="BK57" t="s">
-        <v>382</v>
-      </c>
-      <c r="BL57" t="s">
-        <v>420</v>
-      </c>
-      <c r="BM57" t="s">
-        <v>458</v>
+      <c r="BJ57">
+        <v>1.227898218</v>
+      </c>
+      <c r="BK57">
+        <v>1.227898263</v>
+      </c>
+      <c r="BL57">
+        <v>1.227898302</v>
+      </c>
+      <c r="BM57">
+        <v>1.227898227</v>
       </c>
     </row>
     <row r="58" spans="1:65">
@@ -13063,16 +12625,16 @@
         <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F58">
         <v>1.54</v>
@@ -13230,8 +12792,8 @@
       <c r="BE58">
         <v>1000</v>
       </c>
-      <c r="BF58" t="s">
-        <v>307</v>
+      <c r="BF58">
+        <v>33218178</v>
       </c>
       <c r="BG58">
         <v>10782</v>
@@ -13242,17 +12804,17 @@
       <c r="BI58">
         <v>58805</v>
       </c>
-      <c r="BJ58" t="s">
-        <v>345</v>
-      </c>
-      <c r="BK58" t="s">
-        <v>383</v>
-      </c>
-      <c r="BL58" t="s">
-        <v>421</v>
-      </c>
-      <c r="BM58" t="s">
-        <v>459</v>
+      <c r="BJ58">
+        <v>1.228046871</v>
+      </c>
+      <c r="BK58">
+        <v>1.228046917</v>
+      </c>
+      <c r="BL58">
+        <v>1.228046956</v>
+      </c>
+      <c r="BM58">
+        <v>1.228046881</v>
       </c>
     </row>
     <row r="59" spans="1:65">
@@ -13260,16 +12822,16 @@
         <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F59">
         <v>2.16</v>
@@ -13427,8 +12989,8 @@
       <c r="BE59">
         <v>1000</v>
       </c>
-      <c r="BF59" t="s">
-        <v>308</v>
+      <c r="BF59">
+        <v>33211728</v>
       </c>
       <c r="BG59">
         <v>5759757</v>
@@ -13439,17 +13001,17 @@
       <c r="BI59">
         <v>58805</v>
       </c>
-      <c r="BJ59" t="s">
-        <v>346</v>
-      </c>
-      <c r="BK59" t="s">
-        <v>384</v>
-      </c>
-      <c r="BL59" t="s">
-        <v>422</v>
-      </c>
-      <c r="BM59" t="s">
-        <v>460</v>
+      <c r="BJ59">
+        <v>1.227928694</v>
+      </c>
+      <c r="BK59">
+        <v>1.227928704</v>
+      </c>
+      <c r="BL59">
+        <v>1.227928693</v>
+      </c>
+      <c r="BM59">
+        <v>1.227928703</v>
       </c>
     </row>
     <row r="60" spans="1:65">
@@ -13457,16 +13019,16 @@
         <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F60">
         <v>2.5</v>
@@ -13624,8 +13186,8 @@
       <c r="BE60">
         <v>1000</v>
       </c>
-      <c r="BF60" t="s">
-        <v>309</v>
+      <c r="BF60">
+        <v>33211969</v>
       </c>
       <c r="BG60">
         <v>46928</v>
@@ -13636,17 +13198,17 @@
       <c r="BI60">
         <v>58805</v>
       </c>
-      <c r="BJ60" t="s">
-        <v>347</v>
-      </c>
-      <c r="BK60" t="s">
-        <v>385</v>
-      </c>
-      <c r="BL60" t="s">
-        <v>423</v>
-      </c>
-      <c r="BM60" t="s">
-        <v>461</v>
+      <c r="BJ60">
+        <v>1.227933702</v>
+      </c>
+      <c r="BK60">
+        <v>1.227933747</v>
+      </c>
+      <c r="BL60">
+        <v>1.227933786</v>
+      </c>
+      <c r="BM60">
+        <v>1.227933711</v>
       </c>
     </row>
     <row r="61" spans="1:65">
@@ -13654,16 +13216,16 @@
         <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E61" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -13821,8 +13383,8 @@
       <c r="BE61">
         <v>1000</v>
       </c>
-      <c r="BF61" t="s">
-        <v>310</v>
+      <c r="BF61">
+        <v>33211973</v>
       </c>
       <c r="BG61">
         <v>364470</v>
@@ -13833,411 +13395,411 @@
       <c r="BI61">
         <v>58805</v>
       </c>
-      <c r="BJ61" t="s">
-        <v>348</v>
-      </c>
-      <c r="BK61" t="s">
-        <v>386</v>
-      </c>
-      <c r="BL61" t="s">
-        <v>424</v>
-      </c>
-      <c r="BM61" t="s">
-        <v>462</v>
+      <c r="BJ61">
+        <v>1.227933612</v>
+      </c>
+      <c r="BK61">
+        <v>1.227933657</v>
+      </c>
+      <c r="BL61">
+        <v>1.227933696</v>
+      </c>
+      <c r="BM61">
+        <v>1.227933621</v>
       </c>
     </row>
     <row r="62" spans="1:65">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F62">
-        <v>6.8</v>
+        <v>2.62</v>
       </c>
       <c r="G62">
-        <v>8.4</v>
+        <v>2.66</v>
       </c>
       <c r="H62">
-        <v>1.51</v>
+        <v>3.15</v>
       </c>
       <c r="I62">
-        <v>1.56</v>
+        <v>3.25</v>
       </c>
       <c r="J62">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="K62">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="L62">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="M62">
-        <v>2.44</v>
+        <v>1.71</v>
       </c>
       <c r="N62">
-        <v>1.69</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="P62">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q62">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R62">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="T62">
-        <v>4.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U62">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="V62">
+        <v>9.4</v>
+      </c>
+      <c r="W62">
+        <v>10.5</v>
+      </c>
+      <c r="X62">
+        <v>17.5</v>
+      </c>
+      <c r="Y62">
+        <v>21</v>
+      </c>
+      <c r="Z62">
+        <v>46</v>
+      </c>
+      <c r="AA62">
+        <v>60</v>
+      </c>
+      <c r="AB62">
         <v>8.199999999999999</v>
       </c>
-      <c r="W62">
-        <v>12</v>
-      </c>
-      <c r="X62">
-        <v>8.6</v>
-      </c>
-      <c r="Y62">
-        <v>12</v>
-      </c>
-      <c r="Z62">
-        <v>4</v>
-      </c>
-      <c r="AA62">
+      <c r="AC62">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD62">
+        <v>6.6</v>
+      </c>
+      <c r="AE62">
+        <v>7.4</v>
+      </c>
+      <c r="AF62">
+        <v>13</v>
+      </c>
+      <c r="AG62">
+        <v>14.5</v>
+      </c>
+      <c r="AH62">
+        <v>36</v>
+      </c>
+      <c r="AI62">
+        <v>46</v>
+      </c>
+      <c r="AJ62">
+        <v>14</v>
+      </c>
+      <c r="AK62">
+        <v>15.5</v>
+      </c>
+      <c r="AL62">
+        <v>11.5</v>
+      </c>
+      <c r="AM62">
+        <v>12.5</v>
+      </c>
+      <c r="AN62">
+        <v>19</v>
+      </c>
+      <c r="AO62">
+        <v>21</v>
+      </c>
+      <c r="AP62">
+        <v>48</v>
+      </c>
+      <c r="AQ62">
+        <v>70</v>
+      </c>
+      <c r="AR62">
+        <v>34</v>
+      </c>
+      <c r="AS62">
+        <v>40</v>
+      </c>
+      <c r="AT62">
+        <v>29</v>
+      </c>
+      <c r="AU62">
+        <v>34</v>
+      </c>
+      <c r="AV62">
+        <v>44</v>
+      </c>
+      <c r="AW62">
+        <v>60</v>
+      </c>
+      <c r="AX62">
+        <v>90</v>
+      </c>
+      <c r="AY62">
+        <v>150</v>
+      </c>
+      <c r="AZ62">
         <v>16</v>
       </c>
-      <c r="AB62">
-        <v>4.5</v>
-      </c>
-      <c r="AC62">
-        <v>980</v>
-      </c>
-      <c r="AD62">
-        <v>9.6</v>
-      </c>
-      <c r="AE62">
-        <v>13.5</v>
-      </c>
-      <c r="AF62">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG62">
-        <v>12</v>
-      </c>
-      <c r="AH62">
-        <v>3.85</v>
-      </c>
-      <c r="AI62">
-        <v>17</v>
-      </c>
-      <c r="AJ62">
-        <v>4.8</v>
-      </c>
-      <c r="AK62">
-        <v>980</v>
-      </c>
-      <c r="AL62">
-        <v>4.4</v>
-      </c>
-      <c r="AM62">
-        <v>32</v>
-      </c>
-      <c r="AN62">
-        <v>4.3</v>
-      </c>
-      <c r="AO62">
-        <v>26</v>
-      </c>
-      <c r="AP62">
-        <v>4.4</v>
-      </c>
-      <c r="AQ62">
-        <v>980</v>
-      </c>
-      <c r="AR62">
-        <v>5</v>
-      </c>
-      <c r="AS62">
-        <v>980</v>
-      </c>
-      <c r="AT62">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AU62">
-        <v>980</v>
-      </c>
-      <c r="AV62">
-        <v>4.9</v>
-      </c>
-      <c r="AW62">
-        <v>980</v>
-      </c>
-      <c r="AX62">
-        <v>8.4</v>
-      </c>
-      <c r="AY62">
-        <v>1000</v>
-      </c>
-      <c r="AZ62">
-        <v>4.9</v>
-      </c>
       <c r="BA62">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="BB62">
-        <v>3.15</v>
+        <v>12.5</v>
       </c>
       <c r="BC62">
-        <v>8.199999999999999</v>
+        <v>48</v>
       </c>
       <c r="BD62">
-        <v>5.1</v>
+        <v>15</v>
       </c>
       <c r="BE62">
         <v>1000</v>
       </c>
-      <c r="BF62" t="s">
-        <v>311</v>
+      <c r="BF62">
+        <v>33211863</v>
       </c>
       <c r="BG62">
-        <v>7394884</v>
+        <v>184329</v>
       </c>
       <c r="BH62">
-        <v>48818</v>
+        <v>387040</v>
       </c>
       <c r="BI62">
         <v>58805</v>
       </c>
-      <c r="BJ62" t="s">
-        <v>349</v>
-      </c>
-      <c r="BK62" t="s">
-        <v>387</v>
-      </c>
-      <c r="BL62" t="s">
-        <v>425</v>
-      </c>
-      <c r="BM62" t="s">
-        <v>463</v>
+      <c r="BJ62">
+        <v>1.227933522</v>
+      </c>
+      <c r="BK62">
+        <v>1.227933567</v>
+      </c>
+      <c r="BL62">
+        <v>1.227933606</v>
+      </c>
+      <c r="BM62">
+        <v>1.227933531</v>
       </c>
     </row>
     <row r="63" spans="1:65">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F63">
-        <v>2.62</v>
+        <v>6.8</v>
       </c>
       <c r="G63">
-        <v>2.66</v>
+        <v>8.4</v>
       </c>
       <c r="H63">
+        <v>1.51</v>
+      </c>
+      <c r="I63">
+        <v>1.56</v>
+      </c>
+      <c r="J63">
+        <v>4.5</v>
+      </c>
+      <c r="K63">
+        <v>5.2</v>
+      </c>
+      <c r="L63">
+        <v>2.32</v>
+      </c>
+      <c r="M63">
+        <v>2.44</v>
+      </c>
+      <c r="N63">
+        <v>1.69</v>
+      </c>
+      <c r="O63">
+        <v>1.75</v>
+      </c>
+      <c r="P63">
+        <v>1.86</v>
+      </c>
+      <c r="Q63">
+        <v>1.93</v>
+      </c>
+      <c r="R63">
+        <v>2.08</v>
+      </c>
+      <c r="S63">
+        <v>2.18</v>
+      </c>
+      <c r="T63">
+        <v>4.3</v>
+      </c>
+      <c r="U63">
+        <v>24</v>
+      </c>
+      <c r="V63">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W63">
+        <v>12</v>
+      </c>
+      <c r="X63">
+        <v>8.6</v>
+      </c>
+      <c r="Y63">
+        <v>12</v>
+      </c>
+      <c r="Z63">
+        <v>4</v>
+      </c>
+      <c r="AA63">
+        <v>16</v>
+      </c>
+      <c r="AB63">
+        <v>4.5</v>
+      </c>
+      <c r="AC63">
+        <v>980</v>
+      </c>
+      <c r="AD63">
+        <v>9.6</v>
+      </c>
+      <c r="AE63">
+        <v>13.5</v>
+      </c>
+      <c r="AF63">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG63">
+        <v>12</v>
+      </c>
+      <c r="AH63">
+        <v>3.85</v>
+      </c>
+      <c r="AI63">
+        <v>17</v>
+      </c>
+      <c r="AJ63">
+        <v>4.8</v>
+      </c>
+      <c r="AK63">
+        <v>980</v>
+      </c>
+      <c r="AL63">
+        <v>4.4</v>
+      </c>
+      <c r="AM63">
+        <v>32</v>
+      </c>
+      <c r="AN63">
+        <v>4.3</v>
+      </c>
+      <c r="AO63">
+        <v>26</v>
+      </c>
+      <c r="AP63">
+        <v>4.4</v>
+      </c>
+      <c r="AQ63">
+        <v>980</v>
+      </c>
+      <c r="AR63">
+        <v>5</v>
+      </c>
+      <c r="AS63">
+        <v>980</v>
+      </c>
+      <c r="AT63">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU63">
+        <v>980</v>
+      </c>
+      <c r="AV63">
+        <v>4.9</v>
+      </c>
+      <c r="AW63">
+        <v>980</v>
+      </c>
+      <c r="AX63">
+        <v>8.4</v>
+      </c>
+      <c r="AY63">
+        <v>1000</v>
+      </c>
+      <c r="AZ63">
+        <v>4.9</v>
+      </c>
+      <c r="BA63">
+        <v>980</v>
+      </c>
+      <c r="BB63">
         <v>3.15</v>
       </c>
-      <c r="I63">
-        <v>3.25</v>
-      </c>
-      <c r="J63">
-        <v>3.2</v>
-      </c>
-      <c r="K63">
-        <v>3.3</v>
-      </c>
-      <c r="L63">
-        <v>1.67</v>
-      </c>
-      <c r="M63">
-        <v>1.71</v>
-      </c>
-      <c r="N63">
-        <v>2.4</v>
-      </c>
-      <c r="O63">
-        <v>2.5</v>
-      </c>
-      <c r="P63">
-        <v>1.98</v>
-      </c>
-      <c r="Q63">
-        <v>2.1</v>
-      </c>
-      <c r="R63">
-        <v>1.9</v>
-      </c>
-      <c r="S63">
-        <v>2.02</v>
-      </c>
-      <c r="T63">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="U63">
-        <v>9.6</v>
-      </c>
-      <c r="V63">
-        <v>9.4</v>
-      </c>
-      <c r="W63">
-        <v>10.5</v>
-      </c>
-      <c r="X63">
-        <v>17.5</v>
-      </c>
-      <c r="Y63">
-        <v>21</v>
-      </c>
-      <c r="Z63">
-        <v>46</v>
-      </c>
-      <c r="AA63">
-        <v>60</v>
-      </c>
-      <c r="AB63">
+      <c r="BC63">
         <v>8.199999999999999</v>
       </c>
-      <c r="AC63">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD63">
-        <v>6.6</v>
-      </c>
-      <c r="AE63">
-        <v>7.4</v>
-      </c>
-      <c r="AF63">
-        <v>13</v>
-      </c>
-      <c r="AG63">
-        <v>14.5</v>
-      </c>
-      <c r="AH63">
-        <v>36</v>
-      </c>
-      <c r="AI63">
-        <v>46</v>
-      </c>
-      <c r="AJ63">
-        <v>14</v>
-      </c>
-      <c r="AK63">
-        <v>15.5</v>
-      </c>
-      <c r="AL63">
-        <v>11.5</v>
-      </c>
-      <c r="AM63">
-        <v>12.5</v>
-      </c>
-      <c r="AN63">
-        <v>19</v>
-      </c>
-      <c r="AO63">
-        <v>21</v>
-      </c>
-      <c r="AP63">
-        <v>48</v>
-      </c>
-      <c r="AQ63">
-        <v>70</v>
-      </c>
-      <c r="AR63">
-        <v>34</v>
-      </c>
-      <c r="AS63">
-        <v>40</v>
-      </c>
-      <c r="AT63">
-        <v>29</v>
-      </c>
-      <c r="AU63">
-        <v>34</v>
-      </c>
-      <c r="AV63">
-        <v>44</v>
-      </c>
-      <c r="AW63">
-        <v>60</v>
-      </c>
-      <c r="AX63">
-        <v>90</v>
-      </c>
-      <c r="AY63">
-        <v>150</v>
-      </c>
-      <c r="AZ63">
-        <v>16</v>
-      </c>
-      <c r="BA63">
-        <v>34</v>
-      </c>
-      <c r="BB63">
-        <v>12.5</v>
-      </c>
-      <c r="BC63">
-        <v>48</v>
-      </c>
       <c r="BD63">
-        <v>15</v>
+        <v>5.1</v>
       </c>
       <c r="BE63">
         <v>1000</v>
       </c>
-      <c r="BF63" t="s">
-        <v>312</v>
+      <c r="BF63">
+        <v>33209724</v>
       </c>
       <c r="BG63">
-        <v>184329</v>
+        <v>7394884</v>
       </c>
       <c r="BH63">
-        <v>387040</v>
+        <v>48818</v>
       </c>
       <c r="BI63">
         <v>58805</v>
       </c>
-      <c r="BJ63" t="s">
-        <v>350</v>
-      </c>
-      <c r="BK63" t="s">
-        <v>388</v>
-      </c>
-      <c r="BL63" t="s">
-        <v>426</v>
-      </c>
-      <c r="BM63" t="s">
-        <v>464</v>
+      <c r="BJ63">
+        <v>1.227893294</v>
+      </c>
+      <c r="BK63">
+        <v>1.227893339</v>
+      </c>
+      <c r="BL63">
+        <v>1.227893378</v>
+      </c>
+      <c r="BM63">
+        <v>1.227893303</v>
       </c>
     </row>
     <row r="64" spans="1:65">
@@ -14245,16 +13807,16 @@
         <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F64">
         <v>2.98</v>
@@ -14412,8 +13974,8 @@
       <c r="BE64">
         <v>1000</v>
       </c>
-      <c r="BF64" t="s">
-        <v>313</v>
+      <c r="BF64">
+        <v>33208688</v>
       </c>
       <c r="BG64">
         <v>198746</v>
@@ -14424,214 +13986,214 @@
       <c r="BI64">
         <v>58805</v>
       </c>
-      <c r="BJ64" t="s">
-        <v>351</v>
-      </c>
-      <c r="BK64" t="s">
-        <v>389</v>
-      </c>
-      <c r="BL64" t="s">
-        <v>427</v>
-      </c>
-      <c r="BM64" t="s">
-        <v>465</v>
+      <c r="BJ64">
+        <v>1.227880434</v>
+      </c>
+      <c r="BK64">
+        <v>1.227880479</v>
+      </c>
+      <c r="BL64">
+        <v>1.227880518</v>
+      </c>
+      <c r="BM64">
+        <v>1.227880443</v>
       </c>
     </row>
     <row r="65" spans="1:65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F65">
-        <v>1.45</v>
+        <v>2.24</v>
       </c>
       <c r="G65">
-        <v>1.46</v>
+        <v>2.28</v>
       </c>
       <c r="H65">
-        <v>8.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="I65">
-        <v>8.4</v>
+        <v>3.85</v>
       </c>
       <c r="J65">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="K65">
-        <v>5.2</v>
+        <v>3.55</v>
       </c>
       <c r="L65">
-        <v>2.52</v>
+        <v>1.82</v>
       </c>
       <c r="M65">
-        <v>2.58</v>
+        <v>1.85</v>
       </c>
       <c r="N65">
-        <v>1.63</v>
+        <v>2.18</v>
       </c>
       <c r="O65">
-        <v>1.66</v>
+        <v>2.22</v>
       </c>
       <c r="P65">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q65">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="R65">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="S65">
         <v>2.16</v>
       </c>
       <c r="T65">
-        <v>22</v>
+        <v>9.4</v>
       </c>
       <c r="U65">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="V65">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="W65">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="X65">
-        <v>70</v>
+        <v>19.5</v>
       </c>
       <c r="Y65">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="Z65">
-        <v>48</v>
+        <v>7.2</v>
       </c>
       <c r="AA65">
-        <v>270</v>
+        <v>980</v>
       </c>
       <c r="AB65">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC65">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD65">
+        <v>6.6</v>
+      </c>
+      <c r="AE65">
+        <v>8.6</v>
+      </c>
+      <c r="AF65">
+        <v>13.5</v>
+      </c>
+      <c r="AG65">
+        <v>980</v>
+      </c>
+      <c r="AH65">
+        <v>7</v>
+      </c>
+      <c r="AI65">
+        <v>980</v>
+      </c>
+      <c r="AJ65">
         <v>10.5</v>
       </c>
-      <c r="AE65">
-        <v>11.5</v>
-      </c>
-      <c r="AF65">
-        <v>28</v>
-      </c>
-      <c r="AG65">
-        <v>29</v>
-      </c>
-      <c r="AH65">
-        <v>95</v>
-      </c>
-      <c r="AI65">
-        <v>110</v>
-      </c>
-      <c r="AJ65">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AK65">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AL65">
         <v>9.4</v>
       </c>
       <c r="AM65">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AN65">
+        <v>17</v>
+      </c>
+      <c r="AO65">
+        <v>980</v>
+      </c>
+      <c r="AP65">
+        <v>7.2</v>
+      </c>
+      <c r="AQ65">
+        <v>980</v>
+      </c>
+      <c r="AR65">
+        <v>6.4</v>
+      </c>
+      <c r="AS65">
+        <v>980</v>
+      </c>
+      <c r="AT65">
         <v>21</v>
       </c>
-      <c r="AO65">
-        <v>22</v>
-      </c>
-      <c r="AP65">
-        <v>85</v>
-      </c>
-      <c r="AQ65">
-        <v>90</v>
-      </c>
-      <c r="AR65">
-        <v>12</v>
-      </c>
-      <c r="AS65">
-        <v>12.5</v>
-      </c>
-      <c r="AT65">
-        <v>12.5</v>
-      </c>
       <c r="AU65">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AV65">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="AW65">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AX65">
-        <v>100</v>
+        <v>7.6</v>
       </c>
       <c r="AY65">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AZ65">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BA65">
-        <v>5.6</v>
+        <v>980</v>
       </c>
       <c r="BB65">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="BC65">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="BD65">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="BE65">
-        <v>980</v>
-      </c>
-      <c r="BF65" t="s">
-        <v>314</v>
+        <v>1000</v>
+      </c>
+      <c r="BF65">
+        <v>33208686</v>
       </c>
       <c r="BG65">
-        <v>924268</v>
+        <v>4064631</v>
       </c>
       <c r="BH65">
-        <v>60303</v>
+        <v>392220</v>
       </c>
       <c r="BI65">
         <v>58805</v>
       </c>
-      <c r="BJ65" t="s">
-        <v>352</v>
-      </c>
-      <c r="BK65" t="s">
-        <v>390</v>
-      </c>
-      <c r="BL65" t="s">
-        <v>428</v>
-      </c>
-      <c r="BM65" t="s">
-        <v>466</v>
+      <c r="BJ65">
+        <v>1.227875756</v>
+      </c>
+      <c r="BK65">
+        <v>1.227875801</v>
+      </c>
+      <c r="BL65">
+        <v>1.22787584</v>
+      </c>
+      <c r="BM65">
+        <v>1.227875765</v>
       </c>
     </row>
     <row r="66" spans="1:65">
@@ -14639,16 +14201,16 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F66">
         <v>2.86</v>
@@ -14806,8 +14368,8 @@
       <c r="BE66">
         <v>1000</v>
       </c>
-      <c r="BF66" t="s">
-        <v>315</v>
+      <c r="BF66">
+        <v>33208685</v>
       </c>
       <c r="BG66">
         <v>38594512</v>
@@ -14818,214 +14380,214 @@
       <c r="BI66">
         <v>58805</v>
       </c>
-      <c r="BJ66" t="s">
-        <v>353</v>
-      </c>
-      <c r="BK66" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL66" t="s">
-        <v>429</v>
-      </c>
-      <c r="BM66" t="s">
-        <v>467</v>
+      <c r="BJ66">
+        <v>1.227875846</v>
+      </c>
+      <c r="BK66">
+        <v>1.227875891</v>
+      </c>
+      <c r="BL66">
+        <v>1.22787593</v>
+      </c>
+      <c r="BM66">
+        <v>1.227875855</v>
       </c>
     </row>
     <row r="67" spans="1:65">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F67">
-        <v>2.24</v>
+        <v>1.45</v>
       </c>
       <c r="G67">
-        <v>2.28</v>
+        <v>1.46</v>
       </c>
       <c r="H67">
-        <v>3.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I67">
-        <v>3.85</v>
+        <v>8.4</v>
       </c>
       <c r="J67">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="K67">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="L67">
-        <v>1.82</v>
+        <v>2.52</v>
       </c>
       <c r="M67">
-        <v>1.85</v>
+        <v>2.58</v>
       </c>
       <c r="N67">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="O67">
-        <v>2.22</v>
+        <v>1.66</v>
       </c>
       <c r="P67">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q67">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="R67">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="S67">
         <v>2.16</v>
       </c>
       <c r="T67">
-        <v>9.4</v>
+        <v>22</v>
       </c>
       <c r="U67">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="V67">
+        <v>30</v>
+      </c>
+      <c r="W67">
+        <v>34</v>
+      </c>
+      <c r="X67">
+        <v>70</v>
+      </c>
+      <c r="Y67">
+        <v>80</v>
+      </c>
+      <c r="Z67">
+        <v>48</v>
+      </c>
+      <c r="AA67">
+        <v>270</v>
+      </c>
+      <c r="AB67">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC67">
+        <v>10</v>
+      </c>
+      <c r="AD67">
         <v>10.5</v>
       </c>
-      <c r="W67">
-        <v>13</v>
-      </c>
-      <c r="X67">
-        <v>19.5</v>
-      </c>
-      <c r="Y67">
-        <v>980</v>
-      </c>
-      <c r="Z67">
-        <v>7.2</v>
-      </c>
-      <c r="AA67">
-        <v>980</v>
-      </c>
-      <c r="AB67">
-        <v>7.8</v>
-      </c>
-      <c r="AC67">
-        <v>9.4</v>
-      </c>
-      <c r="AD67">
-        <v>6.6</v>
-      </c>
       <c r="AE67">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AF67">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="AG67">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AH67">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="AI67">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AJ67">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK67">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AL67">
         <v>9.4</v>
       </c>
       <c r="AM67">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AN67">
+        <v>21</v>
+      </c>
+      <c r="AO67">
+        <v>22</v>
+      </c>
+      <c r="AP67">
+        <v>85</v>
+      </c>
+      <c r="AQ67">
+        <v>90</v>
+      </c>
+      <c r="AR67">
         <v>12</v>
       </c>
-      <c r="AN67">
-        <v>17</v>
-      </c>
-      <c r="AO67">
-        <v>980</v>
-      </c>
-      <c r="AP67">
-        <v>7.2</v>
-      </c>
-      <c r="AQ67">
-        <v>980</v>
-      </c>
-      <c r="AR67">
-        <v>6.4</v>
-      </c>
       <c r="AS67">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AT67">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AU67">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AV67">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AW67">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AX67">
-        <v>7.6</v>
+        <v>100</v>
       </c>
       <c r="AY67">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AZ67">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="BA67">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="BB67">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="BC67">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="BD67">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="BE67">
-        <v>1000</v>
-      </c>
-      <c r="BF67" t="s">
-        <v>316</v>
+        <v>980</v>
+      </c>
+      <c r="BF67">
+        <v>33192544</v>
       </c>
       <c r="BG67">
-        <v>4064631</v>
+        <v>924268</v>
       </c>
       <c r="BH67">
-        <v>392220</v>
+        <v>60303</v>
       </c>
       <c r="BI67">
         <v>58805</v>
       </c>
-      <c r="BJ67" t="s">
-        <v>354</v>
-      </c>
-      <c r="BK67" t="s">
-        <v>392</v>
-      </c>
-      <c r="BL67" t="s">
-        <v>430</v>
-      </c>
-      <c r="BM67" t="s">
-        <v>468</v>
+      <c r="BJ67">
+        <v>1.227601313</v>
+      </c>
+      <c r="BK67">
+        <v>1.227601297</v>
+      </c>
+      <c r="BL67">
+        <v>1.227601312</v>
+      </c>
+      <c r="BM67">
+        <v>1.227601322</v>
       </c>
     </row>
     <row r="68" spans="1:65">
@@ -15033,16 +14595,16 @@
         <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E68" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F68">
         <v>3.65</v>
@@ -15200,8 +14762,8 @@
       <c r="BE68">
         <v>1000</v>
       </c>
-      <c r="BF68" t="s">
-        <v>317</v>
+      <c r="BF68">
+        <v>33212616</v>
       </c>
       <c r="BG68">
         <v>505721</v>
@@ -15212,17 +14774,17 @@
       <c r="BI68">
         <v>58805</v>
       </c>
-      <c r="BJ68" t="s">
-        <v>355</v>
-      </c>
-      <c r="BK68" t="s">
-        <v>393</v>
-      </c>
-      <c r="BL68" t="s">
-        <v>431</v>
-      </c>
-      <c r="BM68" t="s">
-        <v>469</v>
+      <c r="BJ68">
+        <v>1.22794275</v>
+      </c>
+      <c r="BK68">
+        <v>1.22794276</v>
+      </c>
+      <c r="BL68">
+        <v>1.227942749</v>
+      </c>
+      <c r="BM68">
+        <v>1.227942759</v>
       </c>
     </row>
     <row r="69" spans="1:65">
@@ -15230,16 +14792,16 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E69" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F69">
         <v>1.65</v>
@@ -15397,8 +14959,8 @@
       <c r="BE69">
         <v>1000</v>
       </c>
-      <c r="BF69" t="s">
-        <v>318</v>
+      <c r="BF69">
+        <v>33208678</v>
       </c>
       <c r="BG69">
         <v>298591</v>
@@ -15409,17 +14971,17 @@
       <c r="BI69">
         <v>58805</v>
       </c>
-      <c r="BJ69" t="s">
-        <v>356</v>
-      </c>
-      <c r="BK69" t="s">
-        <v>394</v>
-      </c>
-      <c r="BL69" t="s">
-        <v>432</v>
-      </c>
-      <c r="BM69" t="s">
-        <v>470</v>
+      <c r="BJ69">
+        <v>1.227875936</v>
+      </c>
+      <c r="BK69">
+        <v>1.227875981</v>
+      </c>
+      <c r="BL69">
+        <v>1.22787602</v>
+      </c>
+      <c r="BM69">
+        <v>1.227875945</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -15427,16 +14989,16 @@
         <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -15594,8 +15156,8 @@
       <c r="BE70">
         <v>1000</v>
       </c>
-      <c r="BF70" t="s">
-        <v>319</v>
+      <c r="BF70">
+        <v>33208667</v>
       </c>
       <c r="BG70">
         <v>62684</v>
@@ -15606,17 +15168,17 @@
       <c r="BI70">
         <v>58805</v>
       </c>
-      <c r="BJ70" t="s">
-        <v>357</v>
-      </c>
-      <c r="BK70" t="s">
-        <v>395</v>
-      </c>
-      <c r="BL70" t="s">
-        <v>433</v>
-      </c>
-      <c r="BM70" t="s">
-        <v>471</v>
+      <c r="BJ70">
+        <v>1.227884961</v>
+      </c>
+      <c r="BK70">
+        <v>1.227884971</v>
+      </c>
+      <c r="BL70">
+        <v>1.22788496</v>
+      </c>
+      <c r="BM70">
+        <v>1.22788497</v>
       </c>
     </row>
     <row r="71" spans="1:65">
@@ -15624,16 +15186,16 @@
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F71">
         <v>2.08</v>
@@ -15791,8 +15353,8 @@
       <c r="BE71">
         <v>980</v>
       </c>
-      <c r="BF71" t="s">
-        <v>320</v>
+      <c r="BF71">
+        <v>33193012</v>
       </c>
       <c r="BG71">
         <v>44797</v>
@@ -15803,17 +15365,17 @@
       <c r="BI71">
         <v>58805</v>
       </c>
-      <c r="BJ71" t="s">
-        <v>358</v>
-      </c>
-      <c r="BK71" t="s">
-        <v>396</v>
-      </c>
-      <c r="BL71" t="s">
-        <v>434</v>
-      </c>
-      <c r="BM71" t="s">
-        <v>472</v>
+      <c r="BJ71">
+        <v>1.227616686</v>
+      </c>
+      <c r="BK71">
+        <v>1.22761667</v>
+      </c>
+      <c r="BL71">
+        <v>1.227616685</v>
+      </c>
+      <c r="BM71">
+        <v>1.227616695</v>
       </c>
     </row>
     <row r="72" spans="1:65">
@@ -15821,16 +15383,16 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F72">
         <v>2.56</v>
@@ -15988,8 +15550,8 @@
       <c r="BE72">
         <v>980</v>
       </c>
-      <c r="BF72" t="s">
-        <v>321</v>
+      <c r="BF72">
+        <v>33192688</v>
       </c>
       <c r="BG72">
         <v>18573</v>
@@ -16000,17 +15562,17 @@
       <c r="BI72">
         <v>58805</v>
       </c>
-      <c r="BJ72" t="s">
-        <v>359</v>
-      </c>
-      <c r="BK72" t="s">
-        <v>397</v>
-      </c>
-      <c r="BL72" t="s">
-        <v>435</v>
-      </c>
-      <c r="BM72" t="s">
-        <v>473</v>
+      <c r="BJ72">
+        <v>1.22761067</v>
+      </c>
+      <c r="BK72">
+        <v>1.227610654</v>
+      </c>
+      <c r="BL72">
+        <v>1.227610669</v>
+      </c>
+      <c r="BM72">
+        <v>1.227610679</v>
       </c>
     </row>
     <row r="73" spans="1:65">
@@ -16018,16 +15580,16 @@
         <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F73">
         <v>1.83</v>
@@ -16185,8 +15747,8 @@
       <c r="BE73">
         <v>1000</v>
       </c>
-      <c r="BF73" t="s">
-        <v>322</v>
+      <c r="BF73">
+        <v>33211974</v>
       </c>
       <c r="BG73">
         <v>184325</v>
@@ -16197,17 +15759,17 @@
       <c r="BI73">
         <v>58805</v>
       </c>
-      <c r="BJ73" t="s">
-        <v>360</v>
-      </c>
-      <c r="BK73" t="s">
-        <v>398</v>
-      </c>
-      <c r="BL73" t="s">
-        <v>436</v>
-      </c>
-      <c r="BM73" t="s">
-        <v>474</v>
+      <c r="BJ73">
+        <v>1.227933792</v>
+      </c>
+      <c r="BK73">
+        <v>1.227933837</v>
+      </c>
+      <c r="BL73">
+        <v>1.227933876</v>
+      </c>
+      <c r="BM73">
+        <v>1.227933801</v>
       </c>
     </row>
     <row r="74" spans="1:65">
@@ -16215,16 +15777,16 @@
         <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F74">
         <v>2.76</v>
@@ -16382,8 +15944,8 @@
       <c r="BE74">
         <v>980</v>
       </c>
-      <c r="BF74" t="s">
-        <v>323</v>
+      <c r="BF74">
+        <v>33210126</v>
       </c>
       <c r="BG74">
         <v>48784</v>
@@ -16394,17 +15956,17 @@
       <c r="BI74">
         <v>58805</v>
       </c>
-      <c r="BJ74" t="s">
-        <v>361</v>
-      </c>
-      <c r="BK74" t="s">
-        <v>399</v>
-      </c>
-      <c r="BL74" t="s">
-        <v>437</v>
-      </c>
-      <c r="BM74" t="s">
-        <v>475</v>
+      <c r="BJ74">
+        <v>1.22789923</v>
+      </c>
+      <c r="BK74">
+        <v>1.22789924</v>
+      </c>
+      <c r="BL74">
+        <v>1.227899229</v>
+      </c>
+      <c r="BM74">
+        <v>1.227899239</v>
       </c>
     </row>
     <row r="75" spans="1:65">
@@ -16412,16 +15974,16 @@
         <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F75">
         <v>1.43</v>
@@ -16579,8 +16141,8 @@
       <c r="BE75">
         <v>1000</v>
       </c>
-      <c r="BF75" t="s">
-        <v>324</v>
+      <c r="BF75">
+        <v>33215341</v>
       </c>
       <c r="BG75">
         <v>4972227</v>
@@ -16591,17 +16153,17 @@
       <c r="BI75">
         <v>58805</v>
       </c>
-      <c r="BJ75" t="s">
-        <v>362</v>
-      </c>
-      <c r="BK75" t="s">
-        <v>400</v>
-      </c>
-      <c r="BL75" t="s">
-        <v>438</v>
-      </c>
-      <c r="BM75" t="s">
-        <v>476</v>
+      <c r="BJ75">
+        <v>1.227993083</v>
+      </c>
+      <c r="BK75">
+        <v>1.227993128</v>
+      </c>
+      <c r="BL75">
+        <v>1.227993167</v>
+      </c>
+      <c r="BM75">
+        <v>1.227993092</v>
       </c>
     </row>
     <row r="76" spans="1:65">
@@ -16609,49 +16171,49 @@
         <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F76">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G76">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="H76">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I76">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J76">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L76">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M76">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N76">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O76">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="P76">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q76">
         <v>2.6</v>
@@ -16660,10 +16222,10 @@
         <v>1.63</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T76">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U76">
         <v>11</v>
@@ -16672,64 +16234,64 @@
         <v>14.5</v>
       </c>
       <c r="W76">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X76">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y76">
         <v>980</v>
       </c>
       <c r="Z76">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AA76">
         <v>980</v>
       </c>
       <c r="AB76">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AC76">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD76">
         <v>7.8</v>
       </c>
       <c r="AE76">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF76">
+        <v>21</v>
+      </c>
+      <c r="AG76">
+        <v>32</v>
+      </c>
+      <c r="AH76">
+        <v>7.8</v>
+      </c>
+      <c r="AI76">
+        <v>980</v>
+      </c>
+      <c r="AJ76">
         <v>7.4</v>
       </c>
-      <c r="AG76">
-        <v>980</v>
-      </c>
-      <c r="AH76">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AI76">
-        <v>980</v>
-      </c>
-      <c r="AJ76">
-        <v>7.2</v>
-      </c>
       <c r="AK76">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AL76">
-        <v>9</v>
+        <v>4.9</v>
       </c>
       <c r="AM76">
         <v>12</v>
       </c>
       <c r="AN76">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="AO76">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AP76">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AQ76">
         <v>980</v>
@@ -16738,46 +16300,46 @@
         <v>14</v>
       </c>
       <c r="AS76">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AT76">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AU76">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AV76">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AW76">
         <v>980</v>
       </c>
       <c r="AX76">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AY76">
         <v>980</v>
       </c>
       <c r="AZ76">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="BA76">
         <v>15</v>
       </c>
       <c r="BB76">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BC76">
         <v>980</v>
       </c>
       <c r="BD76">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BE76">
         <v>1000</v>
       </c>
       <c r="BF76" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="BG76">
         <v>2405306</v>
@@ -16789,16 +16351,16 @@
         <v>58805</v>
       </c>
       <c r="BJ76" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="BK76" t="s">
-        <v>401</v>
+        <v>314</v>
       </c>
       <c r="BL76" t="s">
-        <v>439</v>
+        <v>322</v>
       </c>
       <c r="BM76" t="s">
-        <v>477</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:65">
@@ -16806,49 +16368,49 @@
         <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F77">
         <v>2.8</v>
       </c>
       <c r="G77">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H77">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I77">
         <v>3.2</v>
       </c>
       <c r="J77">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K77">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L77">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M77">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="N77">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O77">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="P77">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q77">
         <v>2.28</v>
@@ -16860,16 +16422,16 @@
         <v>1.88</v>
       </c>
       <c r="T77">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="U77">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="V77">
+        <v>5.5</v>
+      </c>
+      <c r="W77">
         <v>9</v>
-      </c>
-      <c r="V77">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="W77">
-        <v>9.199999999999999</v>
       </c>
       <c r="X77">
         <v>16</v>
@@ -16878,16 +16440,16 @@
         <v>980</v>
       </c>
       <c r="Z77">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AA77">
         <v>980</v>
       </c>
       <c r="AB77">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC77">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD77">
         <v>6.4</v>
@@ -16902,7 +16464,7 @@
         <v>980</v>
       </c>
       <c r="AH77">
-        <v>7.8</v>
+        <v>32</v>
       </c>
       <c r="AI77">
         <v>980</v>
@@ -16911,70 +16473,70 @@
         <v>14.5</v>
       </c>
       <c r="AK77">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL77">
         <v>12</v>
       </c>
       <c r="AM77">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AN77">
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="AO77">
         <v>980</v>
       </c>
       <c r="AP77">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="AQ77">
         <v>980</v>
       </c>
       <c r="AR77">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="AS77">
         <v>980</v>
       </c>
       <c r="AT77">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AU77">
         <v>980</v>
       </c>
       <c r="AV77">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AW77">
         <v>980</v>
       </c>
       <c r="AX77">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AY77">
         <v>1000</v>
       </c>
       <c r="AZ77">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="BA77">
         <v>980</v>
       </c>
       <c r="BB77">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="BC77">
         <v>980</v>
       </c>
       <c r="BD77">
-        <v>9.4</v>
+        <v>4.6</v>
       </c>
       <c r="BE77">
         <v>1000</v>
       </c>
       <c r="BF77" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="BG77">
         <v>1040280</v>
@@ -16986,16 +16548,16 @@
         <v>58805</v>
       </c>
       <c r="BJ77" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="BK77" t="s">
-        <v>402</v>
+        <v>315</v>
       </c>
       <c r="BL77" t="s">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="BM77" t="s">
-        <v>478</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:65">
@@ -17003,49 +16565,49 @@
         <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F78">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I78">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="J78">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K78">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L78">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="M78">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="N78">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="O78">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="P78">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q78">
         <v>2.28</v>
@@ -17054,124 +16616,124 @@
         <v>1.78</v>
       </c>
       <c r="S78">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T78">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="U78">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V78">
-        <v>1.96</v>
+        <v>6.6</v>
       </c>
       <c r="W78">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="X78">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y78">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z78">
-        <v>3.65</v>
+        <v>22</v>
       </c>
       <c r="AA78">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AB78">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="AC78">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AD78">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="AE78">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AF78">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AG78">
         <v>980</v>
       </c>
       <c r="AH78">
-        <v>3.6</v>
+        <v>23</v>
       </c>
       <c r="AI78">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AJ78">
-        <v>2.52</v>
+        <v>26</v>
       </c>
       <c r="AK78">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL78">
-        <v>3.55</v>
+        <v>16.5</v>
       </c>
       <c r="AM78">
+        <v>19.5</v>
+      </c>
+      <c r="AN78">
+        <v>22</v>
+      </c>
+      <c r="AO78">
+        <v>25</v>
+      </c>
+      <c r="AP78">
+        <v>16</v>
+      </c>
+      <c r="AQ78">
+        <v>55</v>
+      </c>
+      <c r="AR78">
+        <v>6.6</v>
+      </c>
+      <c r="AS78">
+        <v>980</v>
+      </c>
+      <c r="AT78">
+        <v>40</v>
+      </c>
+      <c r="AU78">
+        <v>75</v>
+      </c>
+      <c r="AV78">
+        <v>6.6</v>
+      </c>
+      <c r="AW78">
+        <v>100</v>
+      </c>
+      <c r="AX78">
+        <v>6.6</v>
+      </c>
+      <c r="AY78">
+        <v>220</v>
+      </c>
+      <c r="AZ78">
+        <v>6.4</v>
+      </c>
+      <c r="BA78">
+        <v>980</v>
+      </c>
+      <c r="BB78">
+        <v>18</v>
+      </c>
+      <c r="BC78">
         <v>24</v>
       </c>
-      <c r="AN78">
-        <v>3.65</v>
-      </c>
-      <c r="AO78">
-        <v>29</v>
-      </c>
-      <c r="AP78">
-        <v>1.91</v>
-      </c>
-      <c r="AQ78">
-        <v>980</v>
-      </c>
-      <c r="AR78">
-        <v>1.94</v>
-      </c>
-      <c r="AS78">
-        <v>980</v>
-      </c>
-      <c r="AT78">
-        <v>1.92</v>
-      </c>
-      <c r="AU78">
-        <v>980</v>
-      </c>
-      <c r="AV78">
-        <v>1.93</v>
-      </c>
-      <c r="AW78">
-        <v>980</v>
-      </c>
-      <c r="AX78">
-        <v>1.67</v>
-      </c>
-      <c r="AY78">
-        <v>980</v>
-      </c>
-      <c r="AZ78">
-        <v>1.66</v>
-      </c>
-      <c r="BA78">
-        <v>980</v>
-      </c>
-      <c r="BB78">
-        <v>1.58</v>
-      </c>
-      <c r="BC78">
-        <v>980</v>
-      </c>
       <c r="BD78">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="BE78">
         <v>1000</v>
       </c>
       <c r="BF78" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="BG78">
         <v>3859186</v>
@@ -17183,16 +16745,16 @@
         <v>58805</v>
       </c>
       <c r="BJ78" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="BK78" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="BL78" t="s">
-        <v>441</v>
+        <v>324</v>
       </c>
       <c r="BM78" t="s">
-        <v>479</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:65">
@@ -17200,28 +16762,28 @@
         <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F79">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G79">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H79">
+        <v>3.4</v>
+      </c>
+      <c r="I79">
         <v>3.5</v>
-      </c>
-      <c r="I79">
-        <v>3.55</v>
       </c>
       <c r="J79">
         <v>3.55</v>
@@ -17230,7 +16792,7 @@
         <v>3.65</v>
       </c>
       <c r="L79">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="M79">
         <v>1.98</v>
@@ -17242,16 +16804,16 @@
         <v>2.08</v>
       </c>
       <c r="P79">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q79">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R79">
         <v>2.08</v>
       </c>
       <c r="S79">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T79">
         <v>12</v>
@@ -17290,22 +16852,22 @@
         <v>8.4</v>
       </c>
       <c r="AF79">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG79">
         <v>15</v>
       </c>
       <c r="AH79">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI79">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ79">
         <v>12.5</v>
       </c>
       <c r="AK79">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL79">
         <v>10</v>
@@ -17329,13 +16891,13 @@
         <v>26</v>
       </c>
       <c r="AS79">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT79">
         <v>21</v>
       </c>
       <c r="AU79">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AV79">
         <v>34</v>
@@ -17353,10 +16915,10 @@
         <v>16</v>
       </c>
       <c r="BA79">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BB79">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="BC79">
         <v>980</v>
@@ -17368,7 +16930,7 @@
         <v>1000</v>
       </c>
       <c r="BF79" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="BG79">
         <v>5129871</v>
@@ -17380,410 +16942,410 @@
         <v>58805</v>
       </c>
       <c r="BJ79" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="BK79" t="s">
-        <v>404</v>
+        <v>317</v>
       </c>
       <c r="BL79" t="s">
-        <v>442</v>
+        <v>325</v>
       </c>
       <c r="BM79" t="s">
-        <v>480</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:65">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E80" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F80">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="G80">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2.44</v>
       </c>
       <c r="I80">
-        <v>4.5</v>
+        <v>2.56</v>
       </c>
       <c r="J80">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K80">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="L80">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="M80">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="N80">
-        <v>2.56</v>
+        <v>2.08</v>
       </c>
       <c r="O80">
-        <v>2.98</v>
+        <v>2.14</v>
       </c>
       <c r="P80">
-        <v>2.16</v>
+        <v>1.79</v>
       </c>
       <c r="Q80">
+        <v>1.99</v>
+      </c>
+      <c r="R80">
+        <v>2.06</v>
+      </c>
+      <c r="S80">
+        <v>2.26</v>
+      </c>
+      <c r="T80">
+        <v>10.5</v>
+      </c>
+      <c r="U80">
+        <v>13</v>
+      </c>
+      <c r="V80">
         <v>9.4</v>
       </c>
-      <c r="R80">
-        <v>1.74</v>
-      </c>
-      <c r="S80">
-        <v>1.85</v>
-      </c>
-      <c r="T80">
+      <c r="W80">
+        <v>10.5</v>
+      </c>
+      <c r="X80">
+        <v>14</v>
+      </c>
+      <c r="Y80">
+        <v>16.5</v>
+      </c>
+      <c r="Z80">
+        <v>29</v>
+      </c>
+      <c r="AA80">
+        <v>36</v>
+      </c>
+      <c r="AB80">
+        <v>10.5</v>
+      </c>
+      <c r="AC80">
+        <v>13.5</v>
+      </c>
+      <c r="AD80">
+        <v>6.8</v>
+      </c>
+      <c r="AE80">
+        <v>8.6</v>
+      </c>
+      <c r="AF80">
+        <v>10</v>
+      </c>
+      <c r="AG80">
+        <v>13</v>
+      </c>
+      <c r="AH80">
+        <v>23</v>
+      </c>
+      <c r="AI80">
+        <v>29</v>
+      </c>
+      <c r="AJ80">
+        <v>16.5</v>
+      </c>
+      <c r="AK80">
+        <v>23</v>
+      </c>
+      <c r="AL80">
+        <v>12</v>
+      </c>
+      <c r="AM80">
+        <v>15</v>
+      </c>
+      <c r="AN80">
+        <v>16</v>
+      </c>
+      <c r="AO80">
+        <v>21</v>
+      </c>
+      <c r="AP80">
+        <v>7</v>
+      </c>
+      <c r="AQ80">
+        <v>46</v>
+      </c>
+      <c r="AR80">
         <v>7.2</v>
       </c>
-      <c r="U80">
-        <v>980</v>
-      </c>
-      <c r="V80">
-        <v>10</v>
-      </c>
-      <c r="W80">
-        <v>980</v>
-      </c>
-      <c r="X80">
-        <v>1.68</v>
-      </c>
-      <c r="Y80">
-        <v>1000</v>
-      </c>
-      <c r="Z80">
-        <v>1.61</v>
-      </c>
-      <c r="AA80">
-        <v>1000</v>
-      </c>
-      <c r="AB80">
-        <v>6.6</v>
-      </c>
-      <c r="AC80">
-        <v>980</v>
-      </c>
-      <c r="AD80">
-        <v>6.4</v>
-      </c>
-      <c r="AE80">
-        <v>980</v>
-      </c>
-      <c r="AF80">
-        <v>1.7</v>
-      </c>
-      <c r="AG80">
-        <v>980</v>
-      </c>
-      <c r="AH80">
-        <v>1.77</v>
-      </c>
-      <c r="AI80">
-        <v>1000</v>
-      </c>
-      <c r="AJ80">
-        <v>1.63</v>
-      </c>
-      <c r="AK80">
-        <v>980</v>
-      </c>
-      <c r="AL80">
-        <v>10.5</v>
-      </c>
-      <c r="AM80">
-        <v>980</v>
-      </c>
-      <c r="AN80">
-        <v>1.73</v>
-      </c>
-      <c r="AO80">
-        <v>980</v>
-      </c>
-      <c r="AP80">
-        <v>1.81</v>
-      </c>
-      <c r="AQ80">
-        <v>1000</v>
-      </c>
-      <c r="AR80">
-        <v>1.59</v>
-      </c>
       <c r="AS80">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AT80">
-        <v>2.22</v>
+        <v>27</v>
       </c>
       <c r="AU80">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AV80">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="AW80">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX80">
-        <v>1.61</v>
+        <v>7.8</v>
       </c>
       <c r="AY80">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AZ80">
-        <v>1.55</v>
+        <v>6.8</v>
       </c>
       <c r="BA80">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="BB80">
-        <v>1.61</v>
+        <v>6</v>
       </c>
       <c r="BC80">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="BD80">
-        <v>1.84</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE80">
         <v>1000</v>
       </c>
       <c r="BF80" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="BG80">
-        <v>200603</v>
+        <v>9610998</v>
       </c>
       <c r="BH80">
-        <v>2909511</v>
+        <v>5323202</v>
       </c>
       <c r="BI80">
         <v>58805</v>
       </c>
       <c r="BJ80" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="BK80" t="s">
-        <v>405</v>
+        <v>318</v>
       </c>
       <c r="BL80" t="s">
-        <v>443</v>
+        <v>326</v>
       </c>
       <c r="BM80" t="s">
-        <v>481</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:65">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F81">
         <v>2.22</v>
       </c>
       <c r="G81">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>4.4</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
         <v>3.25</v>
       </c>
-      <c r="I81">
-        <v>3.65</v>
-      </c>
-      <c r="J81">
-        <v>3.25</v>
-      </c>
-      <c r="K81">
-        <v>3.8</v>
-      </c>
       <c r="L81">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="M81">
-        <v>2.1</v>
+        <v>1.63</v>
       </c>
       <c r="N81">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="O81">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="P81">
-        <v>1.71</v>
+        <v>2.16</v>
       </c>
       <c r="Q81">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="R81">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>2.42</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="U81">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="V81">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W81">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="X81">
+        <v>2.68</v>
+      </c>
+      <c r="Y81">
+        <v>1000</v>
+      </c>
+      <c r="Z81">
+        <v>3.3</v>
+      </c>
+      <c r="AA81">
+        <v>1000</v>
+      </c>
+      <c r="AB81">
+        <v>6.6</v>
+      </c>
+      <c r="AC81">
+        <v>980</v>
+      </c>
+      <c r="AD81">
+        <v>6.4</v>
+      </c>
+      <c r="AE81">
+        <v>980</v>
+      </c>
+      <c r="AF81">
+        <v>1.7</v>
+      </c>
+      <c r="AG81">
+        <v>980</v>
+      </c>
+      <c r="AH81">
+        <v>1.77</v>
+      </c>
+      <c r="AI81">
+        <v>1000</v>
+      </c>
+      <c r="AJ81">
+        <v>1.63</v>
+      </c>
+      <c r="AK81">
+        <v>980</v>
+      </c>
+      <c r="AL81">
+        <v>10.5</v>
+      </c>
+      <c r="AM81">
+        <v>980</v>
+      </c>
+      <c r="AN81">
+        <v>1.73</v>
+      </c>
+      <c r="AO81">
+        <v>980</v>
+      </c>
+      <c r="AP81">
+        <v>2.3</v>
+      </c>
+      <c r="AQ81">
+        <v>1000</v>
+      </c>
+      <c r="AR81">
+        <v>2.2</v>
+      </c>
+      <c r="AS81">
+        <v>980</v>
+      </c>
+      <c r="AT81">
+        <v>5.7</v>
+      </c>
+      <c r="AU81">
+        <v>980</v>
+      </c>
+      <c r="AV81">
+        <v>1.8</v>
+      </c>
+      <c r="AW81">
+        <v>1000</v>
+      </c>
+      <c r="AX81">
         <v>18.5</v>
       </c>
-      <c r="Y81">
-        <v>980</v>
-      </c>
-      <c r="Z81">
-        <v>7</v>
-      </c>
-      <c r="AA81">
-        <v>980</v>
-      </c>
-      <c r="AB81">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>12</v>
-      </c>
-      <c r="AD81">
-        <v>7</v>
-      </c>
-      <c r="AE81">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF81">
-        <v>12</v>
-      </c>
-      <c r="AG81">
-        <v>15.5</v>
-      </c>
-      <c r="AH81">
-        <v>27</v>
-      </c>
-      <c r="AI81">
-        <v>980</v>
-      </c>
-      <c r="AJ81">
-        <v>12.5</v>
-      </c>
-      <c r="AK81">
-        <v>16.5</v>
-      </c>
-      <c r="AL81">
-        <v>10</v>
-      </c>
-      <c r="AM81">
-        <v>12.5</v>
-      </c>
-      <c r="AN81">
-        <v>14</v>
-      </c>
-      <c r="AO81">
-        <v>19.5</v>
-      </c>
-      <c r="AP81">
-        <v>34</v>
-      </c>
-      <c r="AQ81">
-        <v>980</v>
-      </c>
-      <c r="AR81">
-        <v>6.4</v>
-      </c>
-      <c r="AS81">
-        <v>34</v>
-      </c>
-      <c r="AT81">
-        <v>20</v>
-      </c>
-      <c r="AU81">
-        <v>27</v>
-      </c>
-      <c r="AV81">
-        <v>29</v>
-      </c>
-      <c r="AW81">
-        <v>980</v>
-      </c>
-      <c r="AX81">
-        <v>6.6</v>
-      </c>
       <c r="AY81">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AZ81">
-        <v>5.2</v>
+        <v>1.55</v>
       </c>
       <c r="BA81">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="BB81">
-        <v>6</v>
+        <v>1.61</v>
       </c>
       <c r="BC81">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="BD81">
-        <v>7</v>
+        <v>1.84</v>
       </c>
       <c r="BE81">
         <v>1000</v>
       </c>
       <c r="BF81" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="BG81">
-        <v>1067928</v>
+        <v>200603</v>
       </c>
       <c r="BH81">
-        <v>8225986</v>
+        <v>2909511</v>
       </c>
       <c r="BI81">
         <v>58805</v>
       </c>
       <c r="BJ81" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="BK81" t="s">
-        <v>406</v>
+        <v>319</v>
       </c>
       <c r="BL81" t="s">
-        <v>444</v>
+        <v>327</v>
       </c>
       <c r="BM81" t="s">
-        <v>482</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:65">
@@ -17791,196 +17353,393 @@
         <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F82">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="G82">
-        <v>6.6</v>
+        <v>2.64</v>
       </c>
       <c r="H82">
-        <v>1.55</v>
+        <v>2.96</v>
       </c>
       <c r="I82">
-        <v>1.59</v>
+        <v>3.3</v>
       </c>
       <c r="J82">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="K82">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L82">
-        <v>2.6</v>
+        <v>1.86</v>
       </c>
       <c r="M82">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="N82">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="O82">
-        <v>1.62</v>
+        <v>2.16</v>
       </c>
       <c r="P82">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Q82">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="R82">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="S82">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="T82">
+        <v>12</v>
+      </c>
+      <c r="U82">
+        <v>15.5</v>
+      </c>
+      <c r="V82">
+        <v>11.5</v>
+      </c>
+      <c r="W82">
+        <v>14.5</v>
+      </c>
+      <c r="X82">
+        <v>18.5</v>
+      </c>
+      <c r="Y82">
+        <v>24</v>
+      </c>
+      <c r="Z82">
+        <v>7.6</v>
+      </c>
+      <c r="AA82">
+        <v>980</v>
+      </c>
+      <c r="AB82">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC82">
+        <v>12</v>
+      </c>
+      <c r="AD82">
+        <v>7</v>
+      </c>
+      <c r="AE82">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF82">
+        <v>12</v>
+      </c>
+      <c r="AG82">
+        <v>15</v>
+      </c>
+      <c r="AH82">
+        <v>27</v>
+      </c>
+      <c r="AI82">
+        <v>38</v>
+      </c>
+      <c r="AJ82">
+        <v>12.5</v>
+      </c>
+      <c r="AK82">
+        <v>16.5</v>
+      </c>
+      <c r="AL82">
+        <v>10</v>
+      </c>
+      <c r="AM82">
+        <v>12.5</v>
+      </c>
+      <c r="AN82">
+        <v>14</v>
+      </c>
+      <c r="AO82">
         <v>19</v>
       </c>
-      <c r="U82">
-        <v>980</v>
-      </c>
-      <c r="V82">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="W82">
-        <v>980</v>
-      </c>
-      <c r="X82">
-        <v>9.4</v>
-      </c>
-      <c r="Y82">
-        <v>12.5</v>
-      </c>
-      <c r="Z82">
-        <v>11</v>
-      </c>
-      <c r="AA82">
-        <v>980</v>
-      </c>
-      <c r="AB82">
-        <v>4.4</v>
-      </c>
-      <c r="AC82">
-        <v>34</v>
-      </c>
-      <c r="AD82">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE82">
-        <v>13</v>
-      </c>
-      <c r="AF82">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG82">
-        <v>12.5</v>
-      </c>
-      <c r="AH82">
-        <v>12.5</v>
-      </c>
-      <c r="AI82">
-        <v>980</v>
-      </c>
-      <c r="AJ82">
-        <v>4.7</v>
-      </c>
-      <c r="AK82">
-        <v>980</v>
-      </c>
-      <c r="AL82">
-        <v>4.4</v>
-      </c>
-      <c r="AM82">
-        <v>980</v>
-      </c>
-      <c r="AN82">
-        <v>4.4</v>
-      </c>
-      <c r="AO82">
-        <v>24</v>
-      </c>
       <c r="AP82">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AQ82">
+        <v>980</v>
+      </c>
+      <c r="AR82">
+        <v>7</v>
+      </c>
+      <c r="AS82">
+        <v>980</v>
+      </c>
+      <c r="AT82">
+        <v>20</v>
+      </c>
+      <c r="AU82">
+        <v>27</v>
+      </c>
+      <c r="AV82">
+        <v>29</v>
+      </c>
+      <c r="AW82">
+        <v>980</v>
+      </c>
+      <c r="AX82">
+        <v>7.4</v>
+      </c>
+      <c r="AY82">
+        <v>980</v>
+      </c>
+      <c r="AZ82">
+        <v>5.7</v>
+      </c>
+      <c r="BA82">
+        <v>21</v>
+      </c>
+      <c r="BB82">
+        <v>6.2</v>
+      </c>
+      <c r="BC82">
         <v>32</v>
       </c>
-      <c r="AR82">
-        <v>4.9</v>
-      </c>
-      <c r="AS82">
-        <v>980</v>
-      </c>
-      <c r="AT82">
-        <v>4.8</v>
-      </c>
-      <c r="AU82">
-        <v>980</v>
-      </c>
-      <c r="AV82">
-        <v>4.8</v>
-      </c>
-      <c r="AW82">
-        <v>980</v>
-      </c>
-      <c r="AX82">
-        <v>4.8</v>
-      </c>
-      <c r="AY82">
-        <v>980</v>
-      </c>
-      <c r="AZ82">
-        <v>4.7</v>
-      </c>
-      <c r="BA82">
-        <v>980</v>
-      </c>
-      <c r="BB82">
-        <v>2.92</v>
-      </c>
-      <c r="BC82">
-        <v>6.8</v>
-      </c>
       <c r="BD82">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="BE82">
         <v>1000</v>
       </c>
       <c r="BF82" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="BG82">
-        <v>328956</v>
+        <v>1067928</v>
       </c>
       <c r="BH82">
-        <v>328952</v>
+        <v>8225986</v>
       </c>
       <c r="BI82">
         <v>58805</v>
       </c>
       <c r="BJ82" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="BK82" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="BL82" t="s">
-        <v>445</v>
+        <v>328</v>
       </c>
       <c r="BM82" t="s">
-        <v>483</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="83" spans="1:65">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>215</v>
+      </c>
+      <c r="E83" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <v>6.6</v>
+      </c>
+      <c r="H83">
+        <v>1.54</v>
+      </c>
+      <c r="I83">
+        <v>1.57</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>5.2</v>
+      </c>
+      <c r="L83">
+        <v>2.68</v>
+      </c>
+      <c r="M83">
+        <v>2.9</v>
+      </c>
+      <c r="N83">
+        <v>1.53</v>
+      </c>
+      <c r="O83">
+        <v>1.59</v>
+      </c>
+      <c r="P83">
+        <v>1.68</v>
+      </c>
+      <c r="Q83">
+        <v>1.75</v>
+      </c>
+      <c r="R83">
+        <v>2.34</v>
+      </c>
+      <c r="S83">
+        <v>2.48</v>
+      </c>
+      <c r="T83">
+        <v>22</v>
+      </c>
+      <c r="U83">
+        <v>27</v>
+      </c>
+      <c r="V83">
+        <v>11</v>
+      </c>
+      <c r="W83">
+        <v>13.5</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83">
+        <v>12</v>
+      </c>
+      <c r="Z83">
+        <v>14</v>
+      </c>
+      <c r="AA83">
+        <v>15.5</v>
+      </c>
+      <c r="AB83">
+        <v>26</v>
+      </c>
+      <c r="AC83">
+        <v>32</v>
+      </c>
+      <c r="AD83">
+        <v>10.5</v>
+      </c>
+      <c r="AE83">
+        <v>12</v>
+      </c>
+      <c r="AF83">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG83">
+        <v>10.5</v>
+      </c>
+      <c r="AH83">
+        <v>13</v>
+      </c>
+      <c r="AI83">
+        <v>14.5</v>
+      </c>
+      <c r="AJ83">
+        <v>42</v>
+      </c>
+      <c r="AK83">
+        <v>60</v>
+      </c>
+      <c r="AL83">
+        <v>21</v>
+      </c>
+      <c r="AM83">
+        <v>24</v>
+      </c>
+      <c r="AN83">
+        <v>17</v>
+      </c>
+      <c r="AO83">
+        <v>20</v>
+      </c>
+      <c r="AP83">
+        <v>22</v>
+      </c>
+      <c r="AQ83">
+        <v>26</v>
+      </c>
+      <c r="AR83">
+        <v>10.5</v>
+      </c>
+      <c r="AS83">
+        <v>980</v>
+      </c>
+      <c r="AT83">
+        <v>48</v>
+      </c>
+      <c r="AU83">
+        <v>75</v>
+      </c>
+      <c r="AV83">
+        <v>44</v>
+      </c>
+      <c r="AW83">
+        <v>65</v>
+      </c>
+      <c r="AX83">
+        <v>48</v>
+      </c>
+      <c r="AY83">
+        <v>980</v>
+      </c>
+      <c r="AZ83">
+        <v>9.6</v>
+      </c>
+      <c r="BA83">
+        <v>60</v>
+      </c>
+      <c r="BB83">
+        <v>5</v>
+      </c>
+      <c r="BC83">
+        <v>6.2</v>
+      </c>
+      <c r="BD83">
+        <v>11</v>
+      </c>
+      <c r="BE83">
+        <v>980</v>
+      </c>
+      <c r="BF83" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG83">
+        <v>328956</v>
+      </c>
+      <c r="BH83">
+        <v>328952</v>
+      </c>
+      <c r="BI83">
+        <v>58805</v>
+      </c>
+      <c r="BJ83" t="s">
+        <v>313</v>
+      </c>
+      <c r="BK83" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL83" t="s">
+        <v>329</v>
+      </c>
+      <c r="BM83" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-26.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="298">
   <si>
     <t>League</t>
   </si>
@@ -908,126 +908,6 @@
   </si>
   <si>
     <t>CF America</t>
-  </si>
-  <si>
-    <t>33215560</t>
-  </si>
-  <si>
-    <t>33215549</t>
-  </si>
-  <si>
-    <t>33215584</t>
-  </si>
-  <si>
-    <t>33213342</t>
-  </si>
-  <si>
-    <t>33226258</t>
-  </si>
-  <si>
-    <t>33215583</t>
-  </si>
-  <si>
-    <t>33208665</t>
-  </si>
-  <si>
-    <t>33193027</t>
-  </si>
-  <si>
-    <t>1.227995851</t>
-  </si>
-  <si>
-    <t>1.227995175</t>
-  </si>
-  <si>
-    <t>1.227995635</t>
-  </si>
-  <si>
-    <t>1.227956134</t>
-  </si>
-  <si>
-    <t>1.228163284</t>
-  </si>
-  <si>
-    <t>1.227995743</t>
-  </si>
-  <si>
-    <t>1.227915861</t>
-  </si>
-  <si>
-    <t>1.227620611</t>
-  </si>
-  <si>
-    <t>1.227995861</t>
-  </si>
-  <si>
-    <t>1.227995185</t>
-  </si>
-  <si>
-    <t>1.227995645</t>
-  </si>
-  <si>
-    <t>1.227956179</t>
-  </si>
-  <si>
-    <t>1.228163287</t>
-  </si>
-  <si>
-    <t>1.227995753</t>
-  </si>
-  <si>
-    <t>1.227915864</t>
-  </si>
-  <si>
-    <t>1.227620656</t>
-  </si>
-  <si>
-    <t>1.227995850</t>
-  </si>
-  <si>
-    <t>1.227995174</t>
-  </si>
-  <si>
-    <t>1.227995634</t>
-  </si>
-  <si>
-    <t>1.227956218</t>
-  </si>
-  <si>
-    <t>1.228163331</t>
-  </si>
-  <si>
-    <t>1.227995742</t>
-  </si>
-  <si>
-    <t>1.227915908</t>
-  </si>
-  <si>
-    <t>1.227620695</t>
-  </si>
-  <si>
-    <t>1.227995860</t>
-  </si>
-  <si>
-    <t>1.227995184</t>
-  </si>
-  <si>
-    <t>1.227995644</t>
-  </si>
-  <si>
-    <t>1.227956143</t>
-  </si>
-  <si>
-    <t>1.228163332</t>
-  </si>
-  <si>
-    <t>1.227995752</t>
-  </si>
-  <si>
-    <t>1.227915909</t>
-  </si>
-  <si>
-    <t>1.227620620</t>
   </si>
 </sst>
 </file>
@@ -16338,8 +16218,8 @@
       <c r="BE76">
         <v>1000</v>
       </c>
-      <c r="BF76" t="s">
-        <v>298</v>
+      <c r="BF76">
+        <v>33215560</v>
       </c>
       <c r="BG76">
         <v>2405306</v>
@@ -16350,17 +16230,17 @@
       <c r="BI76">
         <v>58805</v>
       </c>
-      <c r="BJ76" t="s">
-        <v>306</v>
-      </c>
-      <c r="BK76" t="s">
-        <v>314</v>
-      </c>
-      <c r="BL76" t="s">
-        <v>322</v>
-      </c>
-      <c r="BM76" t="s">
-        <v>330</v>
+      <c r="BJ76">
+        <v>1.227995851</v>
+      </c>
+      <c r="BK76">
+        <v>1.227995861</v>
+      </c>
+      <c r="BL76">
+        <v>1.22799585</v>
+      </c>
+      <c r="BM76">
+        <v>1.22799586</v>
       </c>
     </row>
     <row r="77" spans="1:65">
@@ -16535,8 +16415,8 @@
       <c r="BE77">
         <v>1000</v>
       </c>
-      <c r="BF77" t="s">
-        <v>299</v>
+      <c r="BF77">
+        <v>33215549</v>
       </c>
       <c r="BG77">
         <v>1040280</v>
@@ -16547,17 +16427,17 @@
       <c r="BI77">
         <v>58805</v>
       </c>
-      <c r="BJ77" t="s">
-        <v>307</v>
-      </c>
-      <c r="BK77" t="s">
-        <v>315</v>
-      </c>
-      <c r="BL77" t="s">
-        <v>323</v>
-      </c>
-      <c r="BM77" t="s">
-        <v>331</v>
+      <c r="BJ77">
+        <v>1.227995175</v>
+      </c>
+      <c r="BK77">
+        <v>1.227995185</v>
+      </c>
+      <c r="BL77">
+        <v>1.227995174</v>
+      </c>
+      <c r="BM77">
+        <v>1.227995184</v>
       </c>
     </row>
     <row r="78" spans="1:65">
@@ -16732,8 +16612,8 @@
       <c r="BE78">
         <v>1000</v>
       </c>
-      <c r="BF78" t="s">
-        <v>300</v>
+      <c r="BF78">
+        <v>33215584</v>
       </c>
       <c r="BG78">
         <v>3859186</v>
@@ -16744,17 +16624,17 @@
       <c r="BI78">
         <v>58805</v>
       </c>
-      <c r="BJ78" t="s">
-        <v>308</v>
-      </c>
-      <c r="BK78" t="s">
-        <v>316</v>
-      </c>
-      <c r="BL78" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM78" t="s">
-        <v>332</v>
+      <c r="BJ78">
+        <v>1.227995635</v>
+      </c>
+      <c r="BK78">
+        <v>1.227995645</v>
+      </c>
+      <c r="BL78">
+        <v>1.227995634</v>
+      </c>
+      <c r="BM78">
+        <v>1.227995644</v>
       </c>
     </row>
     <row r="79" spans="1:65">
@@ -16929,8 +16809,8 @@
       <c r="BE79">
         <v>1000</v>
       </c>
-      <c r="BF79" t="s">
-        <v>301</v>
+      <c r="BF79">
+        <v>33213342</v>
       </c>
       <c r="BG79">
         <v>5129871</v>
@@ -16941,17 +16821,17 @@
       <c r="BI79">
         <v>58805</v>
       </c>
-      <c r="BJ79" t="s">
-        <v>309</v>
-      </c>
-      <c r="BK79" t="s">
-        <v>317</v>
-      </c>
-      <c r="BL79" t="s">
-        <v>325</v>
-      </c>
-      <c r="BM79" t="s">
-        <v>333</v>
+      <c r="BJ79">
+        <v>1.227956134</v>
+      </c>
+      <c r="BK79">
+        <v>1.227956179</v>
+      </c>
+      <c r="BL79">
+        <v>1.227956218</v>
+      </c>
+      <c r="BM79">
+        <v>1.227956143</v>
       </c>
     </row>
     <row r="80" spans="1:65">
@@ -17126,8 +17006,8 @@
       <c r="BE80">
         <v>1000</v>
       </c>
-      <c r="BF80" t="s">
-        <v>302</v>
+      <c r="BF80">
+        <v>33226258</v>
       </c>
       <c r="BG80">
         <v>9610998</v>
@@ -17138,17 +17018,17 @@
       <c r="BI80">
         <v>58805</v>
       </c>
-      <c r="BJ80" t="s">
-        <v>310</v>
-      </c>
-      <c r="BK80" t="s">
-        <v>318</v>
-      </c>
-      <c r="BL80" t="s">
-        <v>326</v>
-      </c>
-      <c r="BM80" t="s">
-        <v>334</v>
+      <c r="BJ80">
+        <v>1.228163284</v>
+      </c>
+      <c r="BK80">
+        <v>1.228163287</v>
+      </c>
+      <c r="BL80">
+        <v>1.228163331</v>
+      </c>
+      <c r="BM80">
+        <v>1.228163332</v>
       </c>
     </row>
     <row r="81" spans="1:65">
@@ -17323,8 +17203,8 @@
       <c r="BE81">
         <v>1000</v>
       </c>
-      <c r="BF81" t="s">
-        <v>303</v>
+      <c r="BF81">
+        <v>33215583</v>
       </c>
       <c r="BG81">
         <v>200603</v>
@@ -17335,17 +17215,17 @@
       <c r="BI81">
         <v>58805</v>
       </c>
-      <c r="BJ81" t="s">
-        <v>311</v>
-      </c>
-      <c r="BK81" t="s">
-        <v>319</v>
-      </c>
-      <c r="BL81" t="s">
-        <v>327</v>
-      </c>
-      <c r="BM81" t="s">
-        <v>335</v>
+      <c r="BJ81">
+        <v>1.227995743</v>
+      </c>
+      <c r="BK81">
+        <v>1.227995753</v>
+      </c>
+      <c r="BL81">
+        <v>1.227995742</v>
+      </c>
+      <c r="BM81">
+        <v>1.227995752</v>
       </c>
     </row>
     <row r="82" spans="1:65">
@@ -17520,8 +17400,8 @@
       <c r="BE82">
         <v>1000</v>
       </c>
-      <c r="BF82" t="s">
-        <v>304</v>
+      <c r="BF82">
+        <v>33208665</v>
       </c>
       <c r="BG82">
         <v>1067928</v>
@@ -17532,17 +17412,17 @@
       <c r="BI82">
         <v>58805</v>
       </c>
-      <c r="BJ82" t="s">
-        <v>312</v>
-      </c>
-      <c r="BK82" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL82" t="s">
-        <v>328</v>
-      </c>
-      <c r="BM82" t="s">
-        <v>336</v>
+      <c r="BJ82">
+        <v>1.227915861</v>
+      </c>
+      <c r="BK82">
+        <v>1.227915864</v>
+      </c>
+      <c r="BL82">
+        <v>1.227915908</v>
+      </c>
+      <c r="BM82">
+        <v>1.227915909</v>
       </c>
     </row>
     <row r="83" spans="1:65">
@@ -17717,8 +17597,8 @@
       <c r="BE83">
         <v>980</v>
       </c>
-      <c r="BF83" t="s">
-        <v>305</v>
+      <c r="BF83">
+        <v>33193027</v>
       </c>
       <c r="BG83">
         <v>328956</v>
@@ -17729,17 +17609,17 @@
       <c r="BI83">
         <v>58805</v>
       </c>
-      <c r="BJ83" t="s">
-        <v>313</v>
-      </c>
-      <c r="BK83" t="s">
-        <v>321</v>
-      </c>
-      <c r="BL83" t="s">
-        <v>329</v>
-      </c>
-      <c r="BM83" t="s">
-        <v>337</v>
+      <c r="BJ83">
+        <v>1.227620611</v>
+      </c>
+      <c r="BK83">
+        <v>1.227620656</v>
+      </c>
+      <c r="BL83">
+        <v>1.227620695</v>
+      </c>
+      <c r="BM83">
+        <v>1.22762062</v>
       </c>
     </row>
   </sheetData>
